--- a/BackTest/2019-10-26 BackTest BSV.xlsx
+++ b/BackTest/2019-10-26 BackTest BSV.xlsx
@@ -451,20 +451,14 @@
         <v>137720</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>137400</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>137480</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>136800</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>137200</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>136600</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>136820</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>136500</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>136440</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>136400</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>136300</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>136200</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>136260</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>135700</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>136180</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>136200</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +731,14 @@
         <v>136060</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>136000</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -820,20 +766,14 @@
         <v>136080</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>135800</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -861,20 +801,14 @@
         <v>136160</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>136600</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -902,20 +836,14 @@
         <v>136280</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>136200</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -943,20 +871,14 @@
         <v>136480</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>136900</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -984,20 +906,14 @@
         <v>136840</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>137200</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1025,20 +941,14 @@
         <v>136960</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>137100</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1066,20 +976,14 @@
         <v>137020</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>136900</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1107,20 +1011,14 @@
         <v>137060</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>136500</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1148,20 +1046,14 @@
         <v>137020</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>137100</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1189,20 +1081,14 @@
         <v>136900</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>136600</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1230,20 +1116,14 @@
         <v>136900</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>136900</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1271,20 +1151,14 @@
         <v>136900</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>136900</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1312,20 +1186,14 @@
         <v>136940</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>136900</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1353,20 +1221,14 @@
         <v>137000</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>137300</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1394,20 +1256,14 @@
         <v>137100</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>137400</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1435,20 +1291,14 @@
         <v>137180</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>137300</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1476,20 +1326,14 @@
         <v>137320</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>137400</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1517,20 +1361,14 @@
         <v>137440</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>137600</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1558,20 +1396,14 @@
         <v>137480</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>137600</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1599,20 +1431,14 @@
         <v>137580</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>137600</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1640,20 +1466,14 @@
         <v>137720</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>138000</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1681,20 +1501,14 @@
         <v>137740</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>137700</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1722,20 +1536,14 @@
         <v>137760</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>137700</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1763,20 +1571,14 @@
         <v>137800</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>137700</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1804,20 +1606,14 @@
         <v>137700</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>137900</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1845,20 +1641,14 @@
         <v>137640</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>137700</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1886,20 +1676,14 @@
         <v>137640</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>137700</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1927,20 +1711,14 @@
         <v>137720</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>137700</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1968,20 +1746,14 @@
         <v>137780</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>138000</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2009,20 +1781,14 @@
         <v>137880</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>137900</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2050,20 +1816,14 @@
         <v>137980</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>137900</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2091,20 +1851,14 @@
         <v>138060</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>137700</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2132,20 +1886,14 @@
         <v>138180</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>138100</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2173,20 +1921,14 @@
         <v>138320</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>138600</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2214,20 +1956,14 @@
         <v>138480</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>138700</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2255,20 +1991,14 @@
         <v>138640</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>138700</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2296,20 +2026,14 @@
         <v>138780</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>139000</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2337,20 +2061,14 @@
         <v>138840</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>138800</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2378,20 +2096,14 @@
         <v>138840</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>138800</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2419,20 +2131,14 @@
         <v>138780</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>138800</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2460,20 +2166,14 @@
         <v>138680</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>138700</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2501,20 +2201,14 @@
         <v>138480</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>138400</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2542,20 +2236,14 @@
         <v>138260</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>138100</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2583,20 +2271,14 @@
         <v>138160</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>138000</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2631,11 +2313,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2670,11 +2348,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2702,20 +2376,14 @@
         <v>137960</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>137900</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2743,20 +2411,14 @@
         <v>138000</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>138300</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2784,20 +2446,14 @@
         <v>137960</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>138000</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2825,20 +2481,14 @@
         <v>138020</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>138200</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2866,20 +2516,14 @@
         <v>138180</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>138100</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2907,20 +2551,14 @@
         <v>138360</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>138600</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2948,20 +2586,14 @@
         <v>138580</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>138800</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2989,20 +2621,14 @@
         <v>138820</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>139200</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3030,20 +2656,14 @@
         <v>138960</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>139200</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3071,20 +2691,14 @@
         <v>139000</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>139100</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3112,20 +2726,14 @@
         <v>138960</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>138900</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3153,20 +2761,14 @@
         <v>138780</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>138600</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3194,20 +2796,14 @@
         <v>138660</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>138500</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3235,20 +2831,14 @@
         <v>138640</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>138600</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3276,20 +2866,14 @@
         <v>138620</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>138800</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3317,20 +2901,14 @@
         <v>138620</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>138800</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3358,20 +2936,14 @@
         <v>138820</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>138800</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3399,20 +2971,14 @@
         <v>138980</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>139100</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3440,20 +3006,14 @@
         <v>139140</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>139400</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3481,20 +3041,14 @@
         <v>139220</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>139600</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3522,20 +3076,14 @@
         <v>139360</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>139400</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3563,20 +3111,14 @@
         <v>139260</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>138700</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3604,20 +3146,14 @@
         <v>139160</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>138800</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3645,20 +3181,14 @@
         <v>139080</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>138900</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3686,20 +3216,14 @@
         <v>139380</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>139400</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3727,20 +3251,14 @@
         <v>139920</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>140800</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3775,11 +3293,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3814,11 +3328,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3853,11 +3363,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3892,11 +3398,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3931,11 +3433,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3970,11 +3468,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4009,11 +3503,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +3538,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4087,11 +3573,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4126,11 +3608,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4165,11 +3643,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4204,11 +3678,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4243,11 +3713,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4282,11 +3748,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4321,11 +3783,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4360,11 +3818,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4399,11 +3853,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4438,11 +3888,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4477,11 +3923,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4516,11 +3958,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4555,11 +3993,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4594,11 +4028,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4633,11 +4063,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4672,11 +4098,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4711,11 +4133,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4750,11 +4168,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4789,11 +4203,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4828,11 +4238,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4867,11 +4273,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4906,11 +4308,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4945,11 +4343,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4984,11 +4378,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5023,11 +4413,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5062,11 +4448,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5101,11 +4483,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5140,11 +4518,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5179,11 +4553,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5218,11 +4588,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5257,11 +4623,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5296,11 +4658,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5335,11 +4693,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5374,11 +4728,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5413,11 +4763,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5452,11 +4798,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5491,11 +4833,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5530,11 +4868,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5569,11 +4903,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5608,11 +4938,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5647,11 +4973,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5686,11 +5008,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5725,11 +5043,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +5078,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5803,11 +5113,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5842,11 +5148,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5881,11 +5183,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5920,11 +5218,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5959,11 +5253,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5998,11 +5288,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6037,11 +5323,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6076,11 +5358,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6115,11 +5393,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6154,11 +5428,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6193,11 +5463,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6232,11 +5498,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6271,11 +5533,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6310,11 +5568,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6349,11 +5603,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6388,11 +5638,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6427,11 +5673,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6466,11 +5708,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6505,11 +5743,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6544,11 +5778,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6583,11 +5813,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6622,11 +5848,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6661,11 +5883,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6700,11 +5918,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6739,11 +5953,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6778,11 +5988,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6817,11 +6023,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6856,11 +6058,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6895,11 +6093,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6934,11 +6128,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6973,11 +6163,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -7012,11 +6198,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -7051,11 +6233,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -7090,11 +6268,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7129,11 +6303,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7168,11 +6338,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7207,11 +6373,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7246,11 +6408,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7285,11 +6443,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7324,11 +6478,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7363,11 +6513,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7402,11 +6548,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7441,11 +6583,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7480,11 +6618,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7519,11 +6653,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7558,11 +6688,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7597,11 +6723,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7636,11 +6758,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7675,11 +6793,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7714,11 +6828,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7753,11 +6863,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7792,11 +6898,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7831,11 +6933,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7870,11 +6968,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7909,11 +7003,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7948,11 +7038,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7987,11 +7073,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -8026,11 +7108,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -8065,11 +7143,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -8104,11 +7178,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -8143,11 +7213,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -8182,11 +7248,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8221,11 +7283,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8260,11 +7318,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8299,11 +7353,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8338,11 +7388,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8377,11 +7423,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8409,16 +7451,18 @@
         <v>149120</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>148800</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M202" t="n">
@@ -8448,12 +7492,14 @@
         <v>149020</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>149100</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
@@ -8487,12 +7533,14 @@
         <v>148880</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>149000</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
@@ -8526,12 +7574,14 @@
         <v>148960</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>148900</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
@@ -8565,12 +7615,14 @@
         <v>148920</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>149000</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
@@ -8604,12 +7656,14 @@
         <v>148880</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>148600</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
@@ -8643,12 +7697,14 @@
         <v>148820</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>148900</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
@@ -8682,12 +7738,14 @@
         <v>148780</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>148700</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
@@ -8721,12 +7779,14 @@
         <v>148720</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>148700</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
@@ -8760,12 +7820,14 @@
         <v>148620</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>148700</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
@@ -8799,12 +7861,14 @@
         <v>148240</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>148100</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
@@ -8838,12 +7902,14 @@
         <v>148140</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>147000</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
@@ -8877,12 +7943,14 @@
         <v>148400</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>148200</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
@@ -8916,12 +7984,14 @@
         <v>148500</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>150000</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
@@ -8955,12 +8025,14 @@
         <v>148700</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>149200</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
@@ -8994,12 +8066,14 @@
         <v>149220</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>149100</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
@@ -9033,12 +8107,14 @@
         <v>149540</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>149600</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr">
         <is>
@@ -9072,12 +8148,14 @@
         <v>149540</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>149800</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr">
         <is>
@@ -21750,16 +20828,18 @@
         <v>0</v>
       </c>
       <c r="I544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr"/>
       <c r="L544" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M544" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M544" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
@@ -21787,11 +20867,15 @@
         <v>0</v>
       </c>
       <c r="I545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr"/>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -21822,11 +20906,15 @@
         <v>0</v>
       </c>
       <c r="I546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr"/>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -21857,11 +20945,15 @@
         <v>0</v>
       </c>
       <c r="I547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr"/>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -21896,7 +20988,11 @@
       </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr"/>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -21931,7 +21027,11 @@
       </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr"/>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -21966,7 +21066,11 @@
       </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr"/>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -22001,7 +21105,11 @@
       </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr"/>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -22036,7 +21144,11 @@
       </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr"/>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -22071,7 +21183,11 @@
       </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr"/>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -22106,7 +21222,11 @@
       </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr"/>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -22141,7 +21261,11 @@
       </c>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr"/>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -22176,7 +21300,11 @@
       </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr"/>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -22211,7 +21339,11 @@
       </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr"/>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -22246,7 +21378,11 @@
       </c>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr"/>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -22281,7 +21417,11 @@
       </c>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr"/>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -22316,7 +21456,11 @@
       </c>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr"/>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -22351,7 +21495,11 @@
       </c>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr"/>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -22386,7 +21534,11 @@
       </c>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr"/>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -22421,7 +21573,11 @@
       </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr"/>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -22456,7 +21612,11 @@
       </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr"/>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -22491,7 +21651,11 @@
       </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr"/>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -22526,7 +21690,11 @@
       </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr"/>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -22561,7 +21729,11 @@
       </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr"/>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -22596,7 +21768,11 @@
       </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr"/>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -22631,7 +21807,11 @@
       </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr"/>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -22666,7 +21846,11 @@
       </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr"/>
+      <c r="L570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -22701,7 +21885,11 @@
       </c>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr"/>
+      <c r="L571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -22736,7 +21924,11 @@
       </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr"/>
-      <c r="L572" t="inlineStr"/>
+      <c r="L572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -22771,7 +21963,11 @@
       </c>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr"/>
-      <c r="L573" t="inlineStr"/>
+      <c r="L573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -22806,7 +22002,11 @@
       </c>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr"/>
-      <c r="L574" t="inlineStr"/>
+      <c r="L574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M574" t="n">
         <v>1</v>
       </c>
@@ -22841,7 +22041,11 @@
       </c>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr"/>
-      <c r="L575" t="inlineStr"/>
+      <c r="L575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M575" t="n">
         <v>1</v>
       </c>
@@ -22876,7 +22080,11 @@
       </c>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr"/>
-      <c r="L576" t="inlineStr"/>
+      <c r="L576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M576" t="n">
         <v>1</v>
       </c>
@@ -22911,7 +22119,11 @@
       </c>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr"/>
-      <c r="L577" t="inlineStr"/>
+      <c r="L577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M577" t="n">
         <v>1</v>
       </c>
@@ -22946,7 +22158,11 @@
       </c>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr"/>
-      <c r="L578" t="inlineStr"/>
+      <c r="L578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M578" t="n">
         <v>1</v>
       </c>
@@ -22981,7 +22197,11 @@
       </c>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr"/>
-      <c r="L579" t="inlineStr"/>
+      <c r="L579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -23016,7 +22236,11 @@
       </c>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr"/>
-      <c r="L580" t="inlineStr"/>
+      <c r="L580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -23051,7 +22275,11 @@
       </c>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr"/>
-      <c r="L581" t="inlineStr"/>
+      <c r="L581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M581" t="n">
         <v>1</v>
       </c>
@@ -23086,7 +22314,11 @@
       </c>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr"/>
-      <c r="L582" t="inlineStr"/>
+      <c r="L582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M582" t="n">
         <v>1</v>
       </c>
@@ -23121,7 +22353,11 @@
       </c>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr"/>
-      <c r="L583" t="inlineStr"/>
+      <c r="L583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M583" t="n">
         <v>1</v>
       </c>
@@ -23156,7 +22392,11 @@
       </c>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr"/>
-      <c r="L584" t="inlineStr"/>
+      <c r="L584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M584" t="n">
         <v>1</v>
       </c>
@@ -23191,7 +22431,11 @@
       </c>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr"/>
-      <c r="L585" t="inlineStr"/>
+      <c r="L585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M585" t="n">
         <v>1</v>
       </c>
@@ -23226,7 +22470,11 @@
       </c>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr"/>
-      <c r="L586" t="inlineStr"/>
+      <c r="L586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M586" t="n">
         <v>1</v>
       </c>
@@ -23261,7 +22509,11 @@
       </c>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr"/>
-      <c r="L587" t="inlineStr"/>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M587" t="n">
         <v>1</v>
       </c>
@@ -23296,7 +22548,11 @@
       </c>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr"/>
-      <c r="L588" t="inlineStr"/>
+      <c r="L588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M588" t="n">
         <v>1</v>
       </c>
@@ -23331,7 +22587,11 @@
       </c>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr"/>
-      <c r="L589" t="inlineStr"/>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M589" t="n">
         <v>1</v>
       </c>
@@ -23366,7 +22626,11 @@
       </c>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr"/>
-      <c r="L590" t="inlineStr"/>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M590" t="n">
         <v>1</v>
       </c>
@@ -23401,7 +22665,11 @@
       </c>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr"/>
-      <c r="L591" t="inlineStr"/>
+      <c r="L591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M591" t="n">
         <v>1</v>
       </c>
@@ -23436,7 +22704,11 @@
       </c>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr"/>
-      <c r="L592" t="inlineStr"/>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M592" t="n">
         <v>1</v>
       </c>
@@ -23471,7 +22743,11 @@
       </c>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr"/>
-      <c r="L593" t="inlineStr"/>
+      <c r="L593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M593" t="n">
         <v>1</v>
       </c>
@@ -23506,7 +22782,11 @@
       </c>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr"/>
-      <c r="L594" t="inlineStr"/>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M594" t="n">
         <v>1</v>
       </c>
@@ -23541,7 +22821,11 @@
       </c>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr"/>
-      <c r="L595" t="inlineStr"/>
+      <c r="L595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M595" t="n">
         <v>1</v>
       </c>
@@ -23576,7 +22860,11 @@
       </c>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr"/>
-      <c r="L596" t="inlineStr"/>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M596" t="n">
         <v>1</v>
       </c>
@@ -23611,7 +22899,11 @@
       </c>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr"/>
-      <c r="L597" t="inlineStr"/>
+      <c r="L597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M597" t="n">
         <v>1</v>
       </c>
@@ -23646,7 +22938,11 @@
       </c>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr"/>
-      <c r="L598" t="inlineStr"/>
+      <c r="L598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M598" t="n">
         <v>1</v>
       </c>
@@ -23681,7 +22977,11 @@
       </c>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr"/>
-      <c r="L599" t="inlineStr"/>
+      <c r="L599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M599" t="n">
         <v>1</v>
       </c>
@@ -23716,7 +23016,11 @@
       </c>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr"/>
-      <c r="L600" t="inlineStr"/>
+      <c r="L600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M600" t="n">
         <v>1</v>
       </c>
@@ -23751,7 +23055,11 @@
       </c>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr"/>
-      <c r="L601" t="inlineStr"/>
+      <c r="L601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M601" t="n">
         <v>1</v>
       </c>
@@ -23786,7 +23094,11 @@
       </c>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr"/>
-      <c r="L602" t="inlineStr"/>
+      <c r="L602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M602" t="n">
         <v>1</v>
       </c>
@@ -23821,7 +23133,11 @@
       </c>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr"/>
-      <c r="L603" t="inlineStr"/>
+      <c r="L603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M603" t="n">
         <v>1</v>
       </c>
@@ -23856,7 +23172,11 @@
       </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr"/>
-      <c r="L604" t="inlineStr"/>
+      <c r="L604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M604" t="n">
         <v>1</v>
       </c>
@@ -23891,7 +23211,11 @@
       </c>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr"/>
-      <c r="L605" t="inlineStr"/>
+      <c r="L605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M605" t="n">
         <v>1</v>
       </c>
@@ -23926,7 +23250,11 @@
       </c>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr"/>
-      <c r="L606" t="inlineStr"/>
+      <c r="L606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M606" t="n">
         <v>1</v>
       </c>
@@ -23961,7 +23289,11 @@
       </c>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr"/>
-      <c r="L607" t="inlineStr"/>
+      <c r="L607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M607" t="n">
         <v>1</v>
       </c>
@@ -23996,7 +23328,11 @@
       </c>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr"/>
-      <c r="L608" t="inlineStr"/>
+      <c r="L608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M608" t="n">
         <v>1</v>
       </c>
@@ -24031,7 +23367,11 @@
       </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr"/>
-      <c r="L609" t="inlineStr"/>
+      <c r="L609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M609" t="n">
         <v>1</v>
       </c>
@@ -24066,7 +23406,11 @@
       </c>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr"/>
-      <c r="L610" t="inlineStr"/>
+      <c r="L610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M610" t="n">
         <v>1</v>
       </c>
@@ -24101,7 +23445,11 @@
       </c>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr"/>
-      <c r="L611" t="inlineStr"/>
+      <c r="L611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M611" t="n">
         <v>1</v>
       </c>
@@ -24132,14 +23480,16 @@
         <v>0</v>
       </c>
       <c r="I612" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr"/>
-      <c r="L612" t="inlineStr"/>
-      <c r="M612" t="n">
-        <v>1</v>
-      </c>
+      <c r="L612" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M612" t="inlineStr"/>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
@@ -24167,7 +23517,7 @@
         <v>0</v>
       </c>
       <c r="I613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr"/>
@@ -24202,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="I614" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr"/>

--- a/BackTest/2019-10-26 BackTest BSV.xlsx
+++ b/BackTest/2019-10-26 BackTest BSV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>453.9385450499999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>241.3295450499999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>135800</v>
@@ -523,7 +523,7 @@
         <v>290.1870450499999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>134600</v>
@@ -562,7 +562,7 @@
         <v>290.1870450499999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>135200</v>
@@ -601,7 +601,7 @@
         <v>376.7016450499999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>135200</v>
@@ -640,7 +640,7 @@
         <v>465.6466450499999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>135400</v>
@@ -679,7 +679,7 @@
         <v>483.3250450499999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>135500</v>
@@ -718,7 +718,7 @@
         <v>483.3250450499999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>135700</v>
@@ -757,7 +757,7 @@
         <v>483.3250450499999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>135700</v>
@@ -796,7 +796,7 @@
         <v>506.3250450499999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>135700</v>
@@ -835,7 +835,7 @@
         <v>615.7705450499999</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>136200</v>
@@ -874,7 +874,7 @@
         <v>624.1382963899999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>136500</v>
@@ -913,7 +913,7 @@
         <v>624.1366963899999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>137100</v>
@@ -952,7 +952,7 @@
         <v>624.1366963899999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>136800</v>
@@ -991,7 +991,7 @@
         <v>624.1366963899999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>136800</v>
@@ -1030,7 +1030,7 @@
         <v>623.4944963899999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>136800</v>
@@ -1069,7 +1069,7 @@
         <v>677.3382963899999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>136200</v>
@@ -1108,7 +1108,7 @@
         <v>656.5593963899998</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>136800</v>
@@ -1147,7 +1147,7 @@
         <v>649.1245963899999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>136600</v>
@@ -1186,7 +1186,7 @@
         <v>639.7770963899999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>136300</v>
@@ -1225,7 +1225,7 @@
         <v>671.9985963899999</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>136200</v>
@@ -1264,7 +1264,7 @@
         <v>736.5081963899999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>136500</v>
@@ -1303,7 +1303,7 @@
         <v>736.5081963899999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>136700</v>
@@ -1342,7 +1342,7 @@
         <v>727.9899963899999</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>136700</v>
@@ -1381,7 +1381,7 @@
         <v>727.9899963899999</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>136100</v>
@@ -1420,7 +1420,7 @@
         <v>727.9899963899999</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>136100</v>
@@ -1459,7 +1459,7 @@
         <v>727.9899963899999</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>136100</v>
@@ -1498,7 +1498,7 @@
         <v>746.4846963899998</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>136100</v>
@@ -1537,7 +1537,7 @@
         <v>746.4960963899998</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>136400</v>
@@ -1576,7 +1576,7 @@
         <v>751.4960963899998</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>136700</v>
@@ -1615,7 +1615,7 @@
         <v>962.3188963899998</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>136800</v>
@@ -1654,7 +1654,7 @@
         <v>961.6821963899998</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>137700</v>
@@ -1693,7 +1693,7 @@
         <v>943.4161963899999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>137400</v>
@@ -1732,7 +1732,7 @@
         <v>947.4860963899998</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>137100</v>
@@ -1771,7 +1771,7 @@
         <v>945.4860963899998</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>137500</v>
@@ -1810,7 +1810,7 @@
         <v>933.3553963899998</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>137400</v>
@@ -1849,7 +1849,7 @@
         <v>911.1066963899998</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>136900</v>
@@ -1888,7 +1888,7 @@
         <v>973.0883963899998</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>136800</v>
@@ -1927,7 +1927,7 @@
         <v>984.9883963899998</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>137200</v>
@@ -1966,7 +1966,7 @@
         <v>1055.12009639</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>137300</v>
@@ -2005,7 +2005,7 @@
         <v>1099.88319639</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>137400</v>
@@ -2044,7 +2044,7 @@
         <v>1177.99379639</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>137600</v>
@@ -2083,7 +2083,7 @@
         <v>1446.08219639</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>137800</v>
@@ -2122,7 +2122,7 @@
         <v>1446.08219639</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>138000</v>
@@ -2161,7 +2161,7 @@
         <v>1454.03899639</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>138000</v>
@@ -2200,7 +2200,7 @@
         <v>1452.35109639</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>138100</v>
@@ -2239,7 +2239,7 @@
         <v>1462.88309639</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>137800</v>
@@ -2278,7 +2278,7 @@
         <v>1412.85809639</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>138000</v>
@@ -2317,7 +2317,7 @@
         <v>1412.85809639</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>137200</v>
@@ -2356,9 +2356,11 @@
         <v>1413.88059639</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>137200</v>
+      </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2393,7 +2395,7 @@
         <v>1435.96399639</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>137500</v>
@@ -2432,9 +2434,11 @@
         <v>1419.82059639</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>138000</v>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2469,9 +2473,11 @@
         <v>1456.73299639</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>137600</v>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2506,9 +2512,11 @@
         <v>1405.89739639</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>137700</v>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2543,7 +2551,7 @@
         <v>1405.89739639</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>137400</v>
@@ -2582,7 +2590,7 @@
         <v>1405.89739639</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>137400</v>
@@ -2621,7 +2629,7 @@
         <v>1411.88929639</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>137400</v>
@@ -2660,7 +2668,7 @@
         <v>1444.73079639</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>138000</v>
@@ -2699,7 +2707,7 @@
         <v>1444.70679639</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>138200</v>
@@ -2738,7 +2746,7 @@
         <v>1397.41069639</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>138100</v>
@@ -2777,7 +2785,7 @@
         <v>1236.72259639</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>136900</v>
@@ -2816,9 +2824,11 @@
         <v>1253.73449639</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>136200</v>
+      </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2853,9 +2863,11 @@
         <v>1179.11549639</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>136600</v>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2890,7 +2902,7 @@
         <v>1064.57559639</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>136300</v>
@@ -2929,7 +2941,7 @@
         <v>1064.57559639</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>136200</v>
@@ -2968,7 +2980,7 @@
         <v>1048.92319639</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>136200</v>
@@ -3007,7 +3019,7 @@
         <v>1049.01199639</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>136000</v>
@@ -3046,7 +3058,7 @@
         <v>1015.14549639</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>136200</v>
@@ -3085,7 +3097,7 @@
         <v>1020.00489639</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>135700</v>
@@ -3124,7 +3136,7 @@
         <v>1021.32359639</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>136300</v>
@@ -3163,7 +3175,7 @@
         <v>1021.32359639</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>136600</v>
@@ -3202,7 +3214,7 @@
         <v>1280.79199639</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>136600</v>
@@ -3241,7 +3253,7 @@
         <v>1342.75130548</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>137200</v>
@@ -3280,7 +3292,7 @@
         <v>1340.90200548</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>137500</v>
@@ -3319,7 +3331,7 @@
         <v>1340.90200548</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>136900</v>
@@ -3358,7 +3370,7 @@
         <v>1245.43090548</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>136900</v>
@@ -3397,7 +3409,7 @@
         <v>1246.39660548</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>136800</v>
@@ -3436,7 +3448,7 @@
         <v>1242.92630548</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>137000</v>
@@ -3475,7 +3487,7 @@
         <v>1242.92630548</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>136900</v>
@@ -3514,7 +3526,7 @@
         <v>1242.92630548</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>136900</v>
@@ -3553,7 +3565,7 @@
         <v>1283.02630548</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>136900</v>
@@ -3592,7 +3604,7 @@
         <v>1283.55630548</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>137000</v>
@@ -3631,7 +3643,7 @@
         <v>1283.61540548</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>137300</v>
@@ -3670,7 +3682,7 @@
         <v>1174.59100548</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>137400</v>
@@ -3709,7 +3721,7 @@
         <v>1186.60390548</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>137300</v>
@@ -3748,7 +3760,7 @@
         <v>1186.60390548</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>137600</v>
@@ -3787,7 +3799,7 @@
         <v>1174.56400548</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>137600</v>
@@ -3826,7 +3838,7 @@
         <v>1271.81550548</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>137500</v>
@@ -3865,7 +3877,7 @@
         <v>1322.17300548</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>137900</v>
@@ -3904,7 +3916,7 @@
         <v>1300.98930548</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>138000</v>
@@ -3943,7 +3955,7 @@
         <v>1300.98930548</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>137700</v>
@@ -3982,9 +3994,11 @@
         <v>1300.98930548</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>137700</v>
+      </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -4019,9 +4033,11 @@
         <v>1265.13640324</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>137700</v>
+      </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
@@ -4056,9 +4072,11 @@
         <v>1265.44640324</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>137400</v>
+      </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -4093,9 +4111,11 @@
         <v>1265.44640324</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>137700</v>
+      </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
@@ -4130,9 +4150,11 @@
         <v>1422.42490324</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>137700</v>
+      </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
@@ -4167,9 +4189,11 @@
         <v>1404.23260324</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>138100</v>
+      </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
@@ -4204,9 +4228,11 @@
         <v>1394.31480324</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>138000</v>
+      </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
@@ -4241,9 +4267,11 @@
         <v>1563.99740324</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>137900</v>
+      </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
@@ -4278,9 +4306,11 @@
         <v>1551.97980324</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>138200</v>
+      </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
@@ -4315,9 +4345,11 @@
         <v>1845.51100324</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>138100</v>
+      </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
@@ -4352,9 +4384,11 @@
         <v>1845.51100324</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>138700</v>
+      </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
@@ -4389,9 +4423,11 @@
         <v>1845.51100324</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>138700</v>
+      </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
@@ -4426,9 +4462,11 @@
         <v>2171.77600324</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>138700</v>
+      </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
@@ -4463,9 +4501,11 @@
         <v>1820.26234922</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>139000</v>
+      </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
@@ -4537,9 +4577,11 @@
         <v>1954.75804922</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>139000</v>
+      </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -4574,9 +4616,11 @@
         <v>1898.262049219999</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>138700</v>
+      </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
@@ -4611,9 +4655,11 @@
         <v>1945.846949219999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>138400</v>
+      </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
@@ -4648,9 +4694,11 @@
         <v>1899.021249219999</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>138500</v>
+      </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
@@ -4685,9 +4733,11 @@
         <v>2724.418849219999</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>137800</v>
+      </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
@@ -4870,9 +4920,11 @@
         <v>2740.599349219999</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>137900</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
@@ -4907,9 +4959,11 @@
         <v>2710.009149219999</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>138100</v>
+      </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
@@ -4944,9 +4998,11 @@
         <v>2727.778849219999</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>138000</v>
+      </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
@@ -4981,9 +5037,11 @@
         <v>2735.766549219999</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>138200</v>
+      </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
@@ -5018,9 +5076,11 @@
         <v>2765.044549219999</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>138700</v>
+      </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
@@ -5055,9 +5115,11 @@
         <v>2779.155749219999</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>138800</v>
+      </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
@@ -5092,9 +5154,11 @@
         <v>2779.155749219999</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>139200</v>
+      </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
@@ -5129,9 +5193,11 @@
         <v>2755.199549219999</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>139200</v>
+      </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
@@ -5166,9 +5232,11 @@
         <v>2755.199549219999</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>138900</v>
+      </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
@@ -5203,9 +5271,11 @@
         <v>2749.896149219999</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>138900</v>
+      </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
@@ -5240,9 +5310,11 @@
         <v>2695.764049219999</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>138600</v>
+      </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
@@ -5351,9 +5423,11 @@
         <v>2792.353370999999</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>138800</v>
+      </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
@@ -5388,9 +5462,11 @@
         <v>2788.235370999999</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>138800</v>
+      </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
@@ -5425,9 +5501,11 @@
         <v>2899.882091099999</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>138600</v>
+      </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -5462,9 +5540,11 @@
         <v>2900.626791099999</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>139300</v>
+      </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
@@ -5499,9 +5579,11 @@
         <v>3169.549991099999</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>139400</v>
+      </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
@@ -5536,9 +5618,11 @@
         <v>3130.854891099999</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>139600</v>
+      </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
@@ -5573,9 +5657,11 @@
         <v>3340.972991099999</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>139200</v>
+      </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
@@ -5610,9 +5696,11 @@
         <v>3287.1335911</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>139300</v>
+      </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
@@ -5758,9 +5846,11 @@
         <v>4071.987497579999</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>140700</v>
+      </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
@@ -6868,7 +6958,7 @@
         <v>9167.140113829997</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6905,7 +6995,7 @@
         <v>9404.799160889997</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -7201,7 +7291,7 @@
         <v>8981.687705849999</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7238,7 +7328,7 @@
         <v>8785.658905849999</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7275,7 +7365,7 @@
         <v>8471.50580585</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7312,7 +7402,7 @@
         <v>8801.13812525</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7349,7 +7439,7 @@
         <v>8694.59738322</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7423,7 +7513,7 @@
         <v>8697.05338322</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7460,7 +7550,7 @@
         <v>8799.911312849999</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7497,7 +7587,7 @@
         <v>8799.911312849999</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7534,7 +7624,7 @@
         <v>8771.08971285</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7571,7 +7661,7 @@
         <v>8771.08971285</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7608,7 +7698,7 @@
         <v>8680.761110539999</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7645,7 +7735,7 @@
         <v>8736.500108229999</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -12122,16 +12212,18 @@
         <v>8274.588249409997</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L313" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
       <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
@@ -12157,11 +12249,15 @@
         <v>7881.929551669997</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12190,11 +12286,15 @@
         <v>7988.637673979997</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12227,7 +12327,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12260,7 +12364,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12293,7 +12401,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12326,7 +12438,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12359,7 +12475,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12392,7 +12512,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12425,7 +12549,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12458,7 +12586,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12491,7 +12623,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12524,7 +12660,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12557,7 +12697,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12590,7 +12734,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12623,7 +12771,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12656,7 +12808,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12689,7 +12845,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12722,7 +12882,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12755,7 +12919,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12788,7 +12956,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12821,7 +12993,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12854,7 +13030,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12887,7 +13067,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12920,7 +13104,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12953,7 +13141,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12986,7 +13178,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13019,7 +13215,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13052,7 +13252,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13085,7 +13289,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13118,7 +13326,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13151,7 +13363,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13184,7 +13400,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13217,7 +13437,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13250,7 +13474,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13283,7 +13511,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13316,7 +13548,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13349,7 +13585,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13382,7 +13622,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13415,7 +13659,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13448,7 +13696,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13481,7 +13733,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13514,7 +13770,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13547,7 +13807,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13580,7 +13844,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13613,7 +13881,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13646,7 +13918,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13679,7 +13955,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13712,7 +13992,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13745,7 +14029,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13778,7 +14066,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13811,7 +14103,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13844,7 +14140,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13877,7 +14177,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13910,7 +14214,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13943,7 +14251,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13976,7 +14288,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14009,7 +14325,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14042,7 +14362,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14075,7 +14399,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14108,7 +14436,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14141,7 +14473,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14174,7 +14510,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14207,7 +14547,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14240,7 +14584,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14273,7 +14621,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14306,7 +14658,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14339,7 +14695,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14372,7 +14732,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14405,7 +14769,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14438,7 +14806,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14471,7 +14843,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14504,7 +14880,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14537,7 +14917,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14570,7 +14954,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14603,7 +14991,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14636,7 +15028,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14669,7 +15065,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14702,7 +15102,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14735,7 +15139,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14768,7 +15176,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14797,11 +15209,15 @@
         <v>8440.301645239995</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14830,11 +15246,15 @@
         <v>8439.724145239996</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14863,11 +15283,15 @@
         <v>8439.724145239996</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14896,11 +15320,15 @@
         <v>8440.124145239995</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14929,11 +15357,15 @@
         <v>8438.282645239995</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14966,7 +15398,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14999,7 +15435,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15028,11 +15468,15 @@
         <v>8397.765145239995</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15061,11 +15505,15 @@
         <v>8362.918745239995</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15094,11 +15542,15 @@
         <v>8320.292945239995</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15127,11 +15579,15 @@
         <v>8321.641445239995</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15160,11 +15616,15 @@
         <v>8318.909945239995</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15193,11 +15653,15 @@
         <v>8319.189945239996</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15226,11 +15690,15 @@
         <v>8247.989945239995</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15259,11 +15727,15 @@
         <v>8113.551045239995</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15292,11 +15764,15 @@
         <v>8035.021345239995</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15325,11 +15801,15 @@
         <v>7970.308045239994</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15362,7 +15842,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15391,11 +15875,15 @@
         <v>7987.277745239994</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15428,7 +15916,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15461,7 +15953,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15494,7 +15990,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15527,7 +16027,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15560,7 +16064,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15593,7 +16101,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15626,7 +16138,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15659,7 +16175,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15692,7 +16212,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15725,7 +16249,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15758,7 +16286,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15791,7 +16323,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15824,7 +16360,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15857,7 +16397,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15890,7 +16434,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15923,7 +16471,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15956,7 +16508,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15989,7 +16545,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16022,7 +16582,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16055,7 +16619,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16088,7 +16656,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16121,7 +16693,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16154,7 +16730,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16187,7 +16767,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16220,7 +16804,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16253,7 +16841,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16286,7 +16878,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16319,7 +16915,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16352,7 +16952,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16385,7 +16989,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16418,7 +17026,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16451,7 +17063,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16484,7 +17100,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16517,7 +17137,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16550,7 +17174,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16583,7 +17211,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16616,7 +17248,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16649,7 +17285,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16682,7 +17322,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16715,7 +17359,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16748,7 +17396,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16781,7 +17433,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16814,7 +17470,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16847,7 +17507,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16880,7 +17544,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16913,7 +17581,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16946,7 +17618,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16979,7 +17655,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17012,7 +17692,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17045,7 +17729,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17078,7 +17766,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17111,7 +17803,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17144,7 +17840,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17177,7 +17877,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17210,7 +17914,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17243,7 +17951,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17276,7 +17988,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17309,7 +18025,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17342,7 +18062,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17375,7 +18099,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17404,11 +18132,15 @@
         <v>7855.651662019996</v>
       </c>
       <c r="H473" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17437,11 +18169,15 @@
         <v>7855.941662019996</v>
       </c>
       <c r="H474" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17470,11 +18206,15 @@
         <v>7855.941662019996</v>
       </c>
       <c r="H475" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17503,11 +18243,15 @@
         <v>7871.101062019996</v>
       </c>
       <c r="H476" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17536,11 +18280,15 @@
         <v>8007.593162019996</v>
       </c>
       <c r="H477" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17569,11 +18317,15 @@
         <v>8093.692530179997</v>
       </c>
       <c r="H478" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17602,11 +18354,15 @@
         <v>8093.711630179997</v>
       </c>
       <c r="H479" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17635,11 +18391,15 @@
         <v>8060.380830179997</v>
       </c>
       <c r="H480" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17668,11 +18428,15 @@
         <v>8070.380830179997</v>
       </c>
       <c r="H481" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17701,11 +18465,15 @@
         <v>8080.590930179997</v>
       </c>
       <c r="H482" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17734,11 +18502,15 @@
         <v>8072.090930179997</v>
       </c>
       <c r="H483" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17767,11 +18539,15 @@
         <v>8072.090930179997</v>
       </c>
       <c r="H484" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17800,11 +18576,15 @@
         <v>8072.090930179997</v>
       </c>
       <c r="H485" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17833,11 +18613,15 @@
         <v>8103.404230179997</v>
       </c>
       <c r="H486" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17866,11 +18650,15 @@
         <v>8104.908730179997</v>
       </c>
       <c r="H487" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17899,11 +18687,15 @@
         <v>8104.908730179997</v>
       </c>
       <c r="H488" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17932,11 +18724,15 @@
         <v>8161.686330179998</v>
       </c>
       <c r="H489" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17965,11 +18761,15 @@
         <v>8293.698230179998</v>
       </c>
       <c r="H490" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17998,11 +18798,15 @@
         <v>8269.398230179999</v>
       </c>
       <c r="H491" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18031,11 +18835,15 @@
         <v>8307.29163018</v>
       </c>
       <c r="H492" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18064,11 +18872,15 @@
         <v>8302.39163018</v>
       </c>
       <c r="H493" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18097,11 +18909,15 @@
         <v>8293.4660509</v>
       </c>
       <c r="H494" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18130,11 +18946,15 @@
         <v>8293.2860509</v>
       </c>
       <c r="H495" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18163,11 +18983,15 @@
         <v>8293.2860509</v>
       </c>
       <c r="H496" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18196,11 +19020,15 @@
         <v>8288.9951509</v>
       </c>
       <c r="H497" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18229,11 +19057,15 @@
         <v>8282.9687509</v>
       </c>
       <c r="H498" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18262,11 +19094,15 @@
         <v>8274.084050899999</v>
       </c>
       <c r="H499" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18295,11 +19131,15 @@
         <v>8271.7238509</v>
       </c>
       <c r="H500" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18328,11 +19168,15 @@
         <v>8275.952150900001</v>
       </c>
       <c r="H501" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18361,11 +19205,15 @@
         <v>8226.879550900001</v>
       </c>
       <c r="H502" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18394,11 +19242,15 @@
         <v>8160.196650900001</v>
       </c>
       <c r="H503" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18427,11 +19279,15 @@
         <v>8063.774637370001</v>
       </c>
       <c r="H504" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18460,11 +19316,15 @@
         <v>8040.695037370001</v>
       </c>
       <c r="H505" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18497,7 +19357,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18530,7 +19394,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18563,7 +19431,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18596,7 +19468,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18629,7 +19505,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18662,7 +19542,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18695,7 +19579,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18728,7 +19616,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18761,7 +19653,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18794,7 +19690,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18827,7 +19727,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18860,7 +19764,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18893,7 +19801,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18926,7 +19838,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18959,7 +19875,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18992,7 +19912,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19025,7 +19949,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19058,7 +19986,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19091,7 +20023,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19124,7 +20060,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19157,7 +20097,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19190,7 +20134,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19223,7 +20171,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19256,7 +20208,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19289,7 +20245,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19322,7 +20282,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19355,7 +20319,11 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19388,7 +20356,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19421,7 +20393,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19454,7 +20430,11 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19487,7 +20467,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19520,7 +20504,11 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19553,7 +20541,11 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19586,7 +20578,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19619,7 +20615,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19652,7 +20652,11 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19685,7 +20689,11 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19718,7 +20726,11 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19747,11 +20759,15 @@
         <v>8808.526137370005</v>
       </c>
       <c r="H544" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19780,11 +20796,15 @@
         <v>8808.526137370005</v>
       </c>
       <c r="H545" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19817,7 +20837,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19850,7 +20874,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19879,11 +20907,15 @@
         <v>8818.936137370005</v>
       </c>
       <c r="H548" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19916,7 +20948,11 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19945,11 +20981,15 @@
         <v>8817.382637370005</v>
       </c>
       <c r="H550" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19982,7 +21022,11 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -20011,11 +21055,15 @@
         <v>8827.820437370005</v>
       </c>
       <c r="H552" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -20048,7 +21096,11 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -20081,7 +21133,11 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -20110,11 +21166,15 @@
         <v>8823.225137370004</v>
       </c>
       <c r="H555" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -20143,11 +21203,15 @@
         <v>8830.840937370003</v>
       </c>
       <c r="H556" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -20176,11 +21240,15 @@
         <v>8820.239937370003</v>
       </c>
       <c r="H557" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -20209,11 +21277,15 @@
         <v>8881.604037370003</v>
       </c>
       <c r="H558" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -20242,11 +21314,15 @@
         <v>8881.604037370003</v>
       </c>
       <c r="H559" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -20275,11 +21351,15 @@
         <v>8881.604037370003</v>
       </c>
       <c r="H560" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -20308,11 +21388,15 @@
         <v>8912.292337370003</v>
       </c>
       <c r="H561" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -20341,11 +21425,15 @@
         <v>8941.599937370003</v>
       </c>
       <c r="H562" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -20374,11 +21462,15 @@
         <v>8941.599937370003</v>
       </c>
       <c r="H563" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20407,11 +21499,15 @@
         <v>9088.497437370002</v>
       </c>
       <c r="H564" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20440,11 +21536,15 @@
         <v>9091.461337370003</v>
       </c>
       <c r="H565" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20473,11 +21573,15 @@
         <v>9268.393337370004</v>
       </c>
       <c r="H566" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20506,11 +21610,15 @@
         <v>9268.393337370004</v>
       </c>
       <c r="H567" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20539,11 +21647,15 @@
         <v>9171.191664160004</v>
       </c>
       <c r="H568" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20572,11 +21684,15 @@
         <v>9277.130264160003</v>
       </c>
       <c r="H569" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20605,11 +21721,15 @@
         <v>9182.007564160003</v>
       </c>
       <c r="H570" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20638,11 +21758,15 @@
         <v>9182.007564160003</v>
       </c>
       <c r="H571" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20671,11 +21795,15 @@
         <v>9097.265964160004</v>
       </c>
       <c r="H572" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20704,11 +21832,15 @@
         <v>9212.262764160005</v>
       </c>
       <c r="H573" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20737,11 +21869,15 @@
         <v>9180.968164160005</v>
       </c>
       <c r="H574" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20770,11 +21906,15 @@
         <v>9206.764364160006</v>
       </c>
       <c r="H575" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20803,11 +21943,15 @@
         <v>9068.014364160006</v>
       </c>
       <c r="H576" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20840,7 +21984,11 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20869,11 +22017,15 @@
         <v>9430.512858840008</v>
       </c>
       <c r="H578" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20902,11 +22054,15 @@
         <v>9524.709858840008</v>
       </c>
       <c r="H579" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20939,7 +22095,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20972,7 +22132,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -21001,11 +22165,15 @@
         <v>9979.986058840008</v>
       </c>
       <c r="H582" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -21038,7 +22206,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -21067,11 +22239,15 @@
         <v>9994.322958840008</v>
       </c>
       <c r="H584" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -21100,11 +22276,15 @@
         <v>10032.68865884001</v>
       </c>
       <c r="H585" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -21133,11 +22313,15 @@
         <v>10020.77275884001</v>
       </c>
       <c r="H586" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -21166,11 +22350,15 @@
         <v>10067.06645884001</v>
       </c>
       <c r="H587" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -21199,11 +22387,15 @@
         <v>10117.53035884001</v>
       </c>
       <c r="H588" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -21232,11 +22424,15 @@
         <v>9974.57815884001</v>
       </c>
       <c r="H589" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -21265,11 +22461,15 @@
         <v>9974.57815884001</v>
       </c>
       <c r="H590" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -21298,11 +22498,15 @@
         <v>9922.162058840009</v>
       </c>
       <c r="H591" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -21331,11 +22535,15 @@
         <v>9902.651358840008</v>
       </c>
       <c r="H592" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21364,11 +22572,15 @@
         <v>9916.675758840009</v>
       </c>
       <c r="H593" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21397,11 +22609,15 @@
         <v>9916.675758840009</v>
       </c>
       <c r="H594" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21434,7 +22650,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21467,7 +22687,11 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21500,7 +22724,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21533,7 +22761,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21562,11 +22794,15 @@
         <v>10626.08355884001</v>
       </c>
       <c r="H599" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21595,11 +22831,15 @@
         <v>11320.59000071001</v>
       </c>
       <c r="H600" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21628,11 +22868,15 @@
         <v>11320.59000071001</v>
       </c>
       <c r="H601" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21661,11 +22905,15 @@
         <v>11869.44252061001</v>
       </c>
       <c r="H602" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21694,11 +22942,15 @@
         <v>12081.12930613001</v>
       </c>
       <c r="H603" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21727,11 +22979,15 @@
         <v>11571.82543754001</v>
       </c>
       <c r="H604" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21760,11 +23016,15 @@
         <v>10875.69163754001</v>
       </c>
       <c r="H605" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21793,11 +23053,15 @@
         <v>10609.27103754001</v>
       </c>
       <c r="H606" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21826,11 +23090,15 @@
         <v>10678.30463754001</v>
       </c>
       <c r="H607" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21859,11 +23127,15 @@
         <v>10569.61763754001</v>
       </c>
       <c r="H608" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21892,11 +23164,15 @@
         <v>10734.57453754001</v>
       </c>
       <c r="H609" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21929,7 +23205,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21962,7 +23242,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21991,11 +23275,15 @@
         <v>10454.33363754001</v>
       </c>
       <c r="H612" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -22024,11 +23312,15 @@
         <v>10407.95983754001</v>
       </c>
       <c r="H613" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -22057,11 +23349,15 @@
         <v>10429.78833754001</v>
       </c>
       <c r="H614" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -22090,11 +23386,15 @@
         <v>10429.78833754001</v>
       </c>
       <c r="H615" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -22127,7 +23427,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -22160,7 +23464,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -22193,7 +23501,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -22226,7 +23538,11 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -22259,7 +23575,11 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -22292,7 +23612,11 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -22325,7 +23649,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -22358,7 +23686,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -22387,14 +23719,16 @@
         <v>10037.29783754001</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
-      <c r="L624" t="n">
-        <v>1</v>
-      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L624" t="inlineStr"/>
       <c r="M624" t="inlineStr"/>
     </row>
     <row r="625">
@@ -22420,7 +23754,7 @@
         <v>10088.54720297001</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22453,7 +23787,7 @@
         <v>10136.54140297001</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22486,7 +23820,7 @@
         <v>10283.67437898001</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -22519,7 +23853,7 @@
         <v>10283.66777898001</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -22552,7 +23886,7 @@
         <v>10339.39827898001</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -22585,7 +23919,7 @@
         <v>10354.10407898001</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -22618,7 +23952,7 @@
         <v>10354.10407898001</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -23014,7 +24348,7 @@
         <v>9800.885892690012</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -23047,7 +24381,7 @@
         <v>9739.091892690012</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -23080,7 +24414,7 @@
         <v>9912.971392690011</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -23113,7 +24447,7 @@
         <v>9943.164192690012</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -23146,7 +24480,7 @@
         <v>9843.794341480012</v>
       </c>
       <c r="H647" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -23179,7 +24513,7 @@
         <v>9939.068741480012</v>
       </c>
       <c r="H648" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -23212,7 +24546,7 @@
         <v>10254.11751428001</v>
       </c>
       <c r="H649" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -23245,7 +24579,7 @@
         <v>10143.52391111001</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -23278,7 +24612,7 @@
         <v>9856.659611110013</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -23311,7 +24645,7 @@
         <v>9861.118511110013</v>
       </c>
       <c r="H652" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -23344,7 +24678,7 @@
         <v>9861.118511110013</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -23377,7 +24711,7 @@
         <v>9969.456772970014</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -23410,7 +24744,7 @@
         <v>10102.32031111001</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -23443,7 +24777,7 @@
         <v>10063.18161111001</v>
       </c>
       <c r="H656" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -23476,7 +24810,7 @@
         <v>10039.53621111001</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -23509,7 +24843,7 @@
         <v>9939.415311110015</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -23542,7 +24876,7 @@
         <v>9971.274011110016</v>
       </c>
       <c r="H659" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -23575,7 +24909,7 @@
         <v>10168.24681111002</v>
       </c>
       <c r="H660" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -23608,7 +24942,7 @@
         <v>10073.60724317002</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23641,7 +24975,7 @@
         <v>10146.69314317002</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23674,7 +25008,7 @@
         <v>10230.01524317002</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -23707,7 +25041,7 @@
         <v>10214.01424317002</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -23740,7 +25074,7 @@
         <v>10247.08601408002</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -23773,7 +25107,7 @@
         <v>10544.58131408002</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -23806,7 +25140,7 @@
         <v>10847.79377878002</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -23839,7 +25173,7 @@
         <v>11302.73036450002</v>
       </c>
       <c r="H668" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -23872,7 +25206,7 @@
         <v>11674.07866450002</v>
       </c>
       <c r="H669" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -23905,7 +25239,7 @@
         <v>11108.41979859002</v>
       </c>
       <c r="H670" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -23938,7 +25272,7 @@
         <v>10469.24926139002</v>
       </c>
       <c r="H671" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -23971,7 +25305,7 @@
         <v>10134.20469530002</v>
       </c>
       <c r="H672" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -24004,7 +25338,7 @@
         <v>9943.762376000015</v>
       </c>
       <c r="H673" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -24037,7 +25371,7 @@
         <v>10018.24927845002</v>
       </c>
       <c r="H674" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -24070,7 +25404,7 @@
         <v>10182.41631541002</v>
       </c>
       <c r="H675" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -24103,7 +25437,7 @@
         <v>10509.86301541002</v>
       </c>
       <c r="H676" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -24136,7 +25470,7 @@
         <v>10204.57041416002</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -24169,7 +25503,7 @@
         <v>10113.39441012002</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -24202,7 +25536,7 @@
         <v>9671.691010120016</v>
       </c>
       <c r="H679" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -24235,7 +25569,7 @@
         <v>9534.343968850015</v>
       </c>
       <c r="H680" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -24268,7 +25602,7 @@
         <v>9593.094368850016</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -24301,7 +25635,7 @@
         <v>9544.876168850016</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -24334,7 +25668,7 @@
         <v>9541.468468850017</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -24367,7 +25701,7 @@
         <v>9577.309268850016</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -24400,7 +25734,7 @@
         <v>9631.440468850016</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -24433,7 +25767,7 @@
         <v>9684.287056840016</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -24466,7 +25800,7 @@
         <v>9684.287056840016</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -24499,7 +25833,7 @@
         <v>9672.671356840016</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -24532,7 +25866,7 @@
         <v>9666.576056840015</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -24565,7 +25899,7 @@
         <v>9772.262056840014</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -24598,7 +25932,7 @@
         <v>9683.027554060014</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -24631,7 +25965,7 @@
         <v>9985.700654060014</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -24664,7 +25998,7 @@
         <v>9985.700654060014</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -24697,7 +26031,7 @@
         <v>9914.524354060015</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -24730,7 +26064,7 @@
         <v>9532.073454060015</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -24763,7 +26097,7 @@
         <v>8953.388654060014</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -24796,7 +26130,7 @@
         <v>10045.14225406001</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -24829,7 +26163,7 @@
         <v>9789.173154060014</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -24862,7 +26196,7 @@
         <v>9637.191815970014</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -24895,7 +26229,7 @@
         <v>9637.191815970014</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -24928,7 +26262,7 @@
         <v>9617.070115970015</v>
       </c>
       <c r="H701" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -24961,7 +26295,7 @@
         <v>9801.869515970015</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -24994,7 +26328,7 @@
         <v>9901.679015970014</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -25027,7 +26361,7 @@
         <v>9947.730115970015</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -25060,7 +26394,7 @@
         <v>9885.453759860015</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -25093,7 +26427,7 @@
         <v>9885.453759860015</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -25126,7 +26460,7 @@
         <v>9993.707659860014</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -25159,7 +26493,7 @@
         <v>9840.809559860014</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -25192,7 +26526,7 @@
         <v>9820.121359860013</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -25225,7 +26559,7 @@
         <v>9774.068859860014</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -25258,7 +26592,7 @@
         <v>9780.053859860014</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -25291,7 +26625,7 @@
         <v>9890.493059860015</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -25324,7 +26658,7 @@
         <v>9976.637659860015</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -25357,7 +26691,7 @@
         <v>9949.925259860014</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -25390,7 +26724,7 @@
         <v>9832.327759860014</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -25423,7 +26757,7 @@
         <v>9968.886259860014</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -25456,7 +26790,7 @@
         <v>9920.912659860014</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -25489,7 +26823,7 @@
         <v>9907.323279380014</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -25522,7 +26856,7 @@
         <v>9912.976779380015</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -25555,7 +26889,7 @@
         <v>9932.355479380014</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -25588,7 +26922,7 @@
         <v>10011.49377938001</v>
       </c>
       <c r="H721" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -25621,7 +26955,7 @@
         <v>9929.442079380015</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -25654,7 +26988,7 @@
         <v>9929.142079380015</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -25687,7 +27021,7 @@
         <v>9861.240979380016</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -25720,7 +27054,7 @@
         <v>9468.486479380015</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -25753,7 +27087,7 @@
         <v>9182.881779380015</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -25786,7 +27120,7 @@
         <v>8449.406179380016</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -25819,7 +27153,7 @@
         <v>8728.037979380015</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -25852,7 +27186,7 @@
         <v>8475.907879380014</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -25885,7 +27219,7 @@
         <v>8537.568379380014</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -25918,7 +27252,7 @@
         <v>8418.385979380015</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -25951,7 +27285,7 @@
         <v>8418.385979380015</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -25984,7 +27318,7 @@
         <v>8328.157179380014</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -26017,7 +27351,7 @@
         <v>8227.564779380014</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -26050,7 +27384,7 @@
         <v>8268.836279380015</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -26083,7 +27417,7 @@
         <v>8250.623679380014</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -26116,7 +27450,7 @@
         <v>8232.972079380015</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -26149,7 +27483,7 @@
         <v>8219.853667120015</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -26182,7 +27516,7 @@
         <v>8219.853667120015</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -26215,7 +27549,7 @@
         <v>8123.481267120014</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -26248,7 +27582,7 @@
         <v>8091.719267120015</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -26281,7 +27615,7 @@
         <v>7814.649561210014</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -26314,7 +27648,7 @@
         <v>7314.296861210014</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -26347,7 +27681,7 @@
         <v>7377.215861210014</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -26380,7 +27714,7 @@
         <v>7368.003162640014</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -26413,7 +27747,7 @@
         <v>7213.410062640014</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -26446,7 +27780,7 @@
         <v>7076.375762640014</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -26479,7 +27813,7 @@
         <v>7277.050962640013</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -26512,7 +27846,7 @@
         <v>7120.178162640013</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -26545,7 +27879,7 @@
         <v>7212.400862640014</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -26578,7 +27912,7 @@
         <v>7274.315162640014</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -26611,7 +27945,7 @@
         <v>7273.359662640014</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -26644,7 +27978,7 @@
         <v>7273.359662640014</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -29053,7 +30387,7 @@
         <v>7187.488260290012</v>
       </c>
       <c r="H826" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -29152,7 +30486,7 @@
         <v>7157.129760290011</v>
       </c>
       <c r="H829" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -29350,7 +30684,7 @@
         <v>7205.505026590012</v>
       </c>
       <c r="H835" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -29383,7 +30717,7 @@
         <v>7205.505026590012</v>
       </c>
       <c r="H836" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -29416,7 +30750,7 @@
         <v>7147.384126590012</v>
       </c>
       <c r="H837" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -29449,7 +30783,7 @@
         <v>7147.384126590012</v>
       </c>
       <c r="H838" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -29482,7 +30816,7 @@
         <v>7085.150026590012</v>
       </c>
       <c r="H839" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -29515,7 +30849,7 @@
         <v>7239.028301180012</v>
       </c>
       <c r="H840" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -29548,7 +30882,7 @@
         <v>7183.671501180012</v>
       </c>
       <c r="H841" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -29581,7 +30915,7 @@
         <v>7200.868901180012</v>
       </c>
       <c r="H842" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -29614,7 +30948,7 @@
         <v>7102.714901180012</v>
       </c>
       <c r="H843" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -29647,7 +30981,7 @@
         <v>7103.503901180012</v>
       </c>
       <c r="H844" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -29680,7 +31014,7 @@
         <v>7028.041401180012</v>
       </c>
       <c r="H845" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -29713,7 +31047,7 @@
         <v>7037.748901180013</v>
       </c>
       <c r="H846" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -29812,7 +31146,7 @@
         <v>7068.178301180013</v>
       </c>
       <c r="H849" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -29944,7 +31278,7 @@
         <v>7928.819501180013</v>
       </c>
       <c r="H853" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -30043,7 +31377,7 @@
         <v>7705.211788970012</v>
       </c>
       <c r="H856" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -30076,7 +31410,7 @@
         <v>7663.673688970012</v>
       </c>
       <c r="H857" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -30109,7 +31443,7 @@
         <v>7693.593863010013</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -30142,7 +31476,7 @@
         <v>7755.069117070013</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -30175,7 +31509,7 @@
         <v>8430.801632540013</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -30208,7 +31542,7 @@
         <v>8739.652166770013</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -30241,7 +31575,7 @@
         <v>8739.652166770013</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -30274,7 +31608,7 @@
         <v>8739.652166770013</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -30307,7 +31641,7 @@
         <v>8873.934531480012</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -30340,7 +31674,7 @@
         <v>8349.047700210012</v>
       </c>
       <c r="H865" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -30373,7 +31707,7 @@
         <v>8387.847700210012</v>
       </c>
       <c r="H866" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -30406,7 +31740,7 @@
         <v>8424.690600320011</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -30439,7 +31773,7 @@
         <v>8439.43040032001</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -30472,7 +31806,7 @@
         <v>8400.61260032001</v>
       </c>
       <c r="H869" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -30505,7 +31839,7 @@
         <v>8365.992600320009</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -30538,7 +31872,7 @@
         <v>8438.487807840009</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -30571,7 +31905,7 @@
         <v>8438.487807840009</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -30604,7 +31938,7 @@
         <v>8315.377407840009</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -30637,7 +31971,7 @@
         <v>8265.126626640009</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -30670,7 +32004,7 @@
         <v>8209.451426640009</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -30703,7 +32037,7 @@
         <v>8209.451426640009</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -30736,7 +32070,7 @@
         <v>8025.656026640009</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -30769,7 +32103,7 @@
         <v>8161.700026640009</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -30802,7 +32136,7 @@
         <v>8131.282229280009</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -30835,7 +32169,7 @@
         <v>8108.01082928001</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -30868,7 +32202,7 @@
         <v>8091.88452928001</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -30901,7 +32235,7 @@
         <v>8255.745629280009</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -30934,7 +32268,7 @@
         <v>8255.745629280009</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -30967,7 +32301,7 @@
         <v>8157.248329280009</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -31000,7 +32334,7 @@
         <v>8133.092429280009</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -31033,7 +32367,7 @@
         <v>8119.890129280009</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -31066,7 +32400,7 @@
         <v>8119.890129280009</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -31099,7 +32433,7 @@
         <v>8119.890129280009</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -31132,7 +32466,7 @@
         <v>8117.461429280009</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -31165,7 +32499,7 @@
         <v>8072.395129280008</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -31198,7 +32532,7 @@
         <v>8078.855329280009</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -31231,7 +32565,7 @@
         <v>8040.091229280009</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -31264,7 +32598,7 @@
         <v>7965.373129280008</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -31297,7 +32631,7 @@
         <v>7965.373129280008</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -31330,7 +32664,7 @@
         <v>7983.337529280008</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -31429,7 +32763,7 @@
         <v>8024.205729280008</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -31462,7 +32796,7 @@
         <v>8022.615129280008</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -31495,7 +32829,7 @@
         <v>8022.905129280008</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -31528,7 +32862,7 @@
         <v>7990.459029280008</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -31561,7 +32895,7 @@
         <v>7990.459029280008</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -31594,7 +32928,7 @@
         <v>7966.429829280008</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -31627,7 +32961,7 @@
         <v>7947.201529280008</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -31660,7 +32994,7 @@
         <v>7919.666629280008</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -31693,7 +33027,7 @@
         <v>7919.666629280008</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -31726,7 +33060,7 @@
         <v>7915.658229280009</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -31759,7 +33093,7 @@
         <v>7915.377229280009</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -31792,7 +33126,7 @@
         <v>7973.791329280009</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -31825,7 +33159,7 @@
         <v>7973.791329280009</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -31858,7 +33192,7 @@
         <v>7972.038129280008</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -31891,7 +33225,7 @@
         <v>7912.590529280008</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -31924,7 +33258,7 @@
         <v>8005.644129280008</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -31957,7 +33291,7 @@
         <v>8005.644129280008</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -31990,7 +33324,7 @@
         <v>7955.879429280008</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -32023,7 +33357,7 @@
         <v>7916.878229280009</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -32056,7 +33390,7 @@
         <v>7943.292229280009</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -32089,7 +33423,7 @@
         <v>7943.292229280009</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -32122,7 +33456,7 @@
         <v>7070.767629280009</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -32155,7 +33489,7 @@
         <v>7195.973829280008</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -32188,7 +33522,7 @@
         <v>7270.944529280008</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -32221,7 +33555,7 @@
         <v>7302.444529280008</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -32254,7 +33588,7 @@
         <v>7310.622429280008</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -32287,7 +33621,7 @@
         <v>7301.970929280008</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -32320,7 +33654,7 @@
         <v>7377.312729280008</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -32353,7 +33687,7 @@
         <v>7377.330779820009</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -32386,7 +33720,7 @@
         <v>7359.030479820009</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -32419,7 +33753,7 @@
         <v>7360.057279820008</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -32452,7 +33786,7 @@
         <v>7362.718765730008</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -32485,7 +33819,7 @@
         <v>7359.542065730008</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -32518,7 +33852,7 @@
         <v>7356.743665730009</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -32551,7 +33885,7 @@
         <v>7256.669365730008</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -32617,7 +33951,7 @@
         <v>7212.333765730008</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -32683,7 +34017,7 @@
         <v>7195.926665010008</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -32716,7 +34050,7 @@
         <v>7275.149665010008</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -32749,7 +34083,7 @@
         <v>7283.796844500008</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -32782,7 +34116,7 @@
         <v>7258.911244500008</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -32815,7 +34149,7 @@
         <v>7108.864644500009</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -32848,7 +34182,7 @@
         <v>7108.864644500009</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -32881,7 +34215,7 @@
         <v>7100.701544500009</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -32914,7 +34248,7 @@
         <v>7145.648153720009</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -32947,7 +34281,7 @@
         <v>7136.801953720009</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -32980,7 +34314,7 @@
         <v>7457.351274230009</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -33013,7 +34347,7 @@
         <v>7345.016674230009</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -33046,7 +34380,7 @@
         <v>7345.016674230009</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -33079,7 +34413,7 @@
         <v>7348.914474230009</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -33145,7 +34479,7 @@
         <v>7359.084474230009</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -33211,7 +34545,7 @@
         <v>8421.989174230008</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -33244,7 +34578,7 @@
         <v>8383.795174230008</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -33277,7 +34611,7 @@
         <v>8071.948406380008</v>
       </c>
       <c r="H954" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -33310,7 +34644,7 @@
         <v>8070.109606380008</v>
       </c>
       <c r="H955" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -33343,7 +34677,7 @@
         <v>8070.109606380008</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -33376,7 +34710,7 @@
         <v>8066.920306380008</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -33409,7 +34743,7 @@
         <v>8065.965006380008</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -33442,7 +34776,7 @@
         <v>8065.965006380008</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -33475,7 +34809,7 @@
         <v>8066.145006380008</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -33508,7 +34842,7 @@
         <v>8066.131906380008</v>
       </c>
       <c r="H961" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -33541,7 +34875,7 @@
         <v>8068.265006380008</v>
       </c>
       <c r="H962" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -33574,7 +34908,7 @@
         <v>8067.604106380008</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -33607,7 +34941,7 @@
         <v>8067.604106380008</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -33640,7 +34974,7 @@
         <v>8068.615206380008</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -33673,7 +35007,7 @@
         <v>8079.129606380008</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -33706,7 +35040,7 @@
         <v>8070.128806380008</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -33739,7 +35073,7 @@
         <v>8080.439228850008</v>
       </c>
       <c r="H968" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -33772,7 +35106,7 @@
         <v>8085.999428850008</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -33805,7 +35139,7 @@
         <v>8085.869328850008</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -33838,7 +35172,7 @@
         <v>8085.869328850008</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -33871,7 +35205,7 @@
         <v>8085.908028850008</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -33904,7 +35238,7 @@
         <v>8088.005728850008</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -33937,7 +35271,7 @@
         <v>8169.987128850008</v>
       </c>
       <c r="H974" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -33970,7 +35304,7 @@
         <v>8140.243828850008</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -34003,7 +35337,7 @@
         <v>8137.295728850008</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -34036,7 +35370,7 @@
         <v>8138.933028850009</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -34069,7 +35403,7 @@
         <v>8199.496228850008</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -34102,7 +35436,7 @@
         <v>8188.188265460009</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -34135,7 +35469,7 @@
         <v>8177.364765460008</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -34168,7 +35502,7 @@
         <v>8177.364765460008</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -34201,7 +35535,7 @@
         <v>8186.532465460008</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -34234,7 +35568,7 @@
         <v>8126.446365460008</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -34267,7 +35601,7 @@
         <v>8126.666365460008</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -34300,7 +35634,7 @@
         <v>8117.639965460008</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -34333,7 +35667,7 @@
         <v>8117.622865460008</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -34366,7 +35700,7 @@
         <v>8117.922865460008</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -34432,7 +35766,7 @@
         <v>7958.542895360009</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -34465,7 +35799,7 @@
         <v>7959.566895360009</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -34498,7 +35832,7 @@
         <v>7944.682095360009</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -34531,7 +35865,7 @@
         <v>7922.110795360009</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -34564,7 +35898,7 @@
         <v>7961.999295360009</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -34597,7 +35931,7 @@
         <v>7968.723195360009</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -34630,7 +35964,7 @@
         <v>8035.764795360009</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -34663,7 +35997,7 @@
         <v>8024.642795360009</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -34696,7 +36030,7 @@
         <v>8038.213995360009</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -34729,7 +36063,7 @@
         <v>8037.435495360009</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -34762,7 +36096,7 @@
         <v>9502.82759536001</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -34795,7 +36129,7 @@
         <v>9388.54789536001</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -34828,7 +36162,7 @@
         <v>9270.04029536001</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -34894,7 +36228,7 @@
         <v>9184.273395360009</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -34960,7 +36294,7 @@
         <v>8431.777295360009</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -34993,7 +36327,7 @@
         <v>8879.502395360008</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -35026,7 +36360,7 @@
         <v>8927.355395360008</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -35059,7 +36393,7 @@
         <v>9127.695392620008</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -35092,7 +36426,7 @@
         <v>9127.695392620008</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -35125,7 +36459,7 @@
         <v>8901.905792620008</v>
       </c>
       <c r="H1010" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -35158,7 +36492,7 @@
         <v>8982.637792620008</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -35191,7 +36525,7 @@
         <v>9041.032163130007</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -35257,7 +36591,7 @@
         <v>9259.982160770007</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -35389,7 +36723,7 @@
         <v>10184.03524264001</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -35455,7 +36789,7 @@
         <v>10236.30432510001</v>
       </c>
       <c r="H1020" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -36049,7 +37383,7 @@
         <v>10190.19034439</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -40174,7 +41508,7 @@
         <v>7743.812827050002</v>
       </c>
       <c r="H1163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
@@ -40207,7 +41541,7 @@
         <v>7744.284127050002</v>
       </c>
       <c r="H1164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
@@ -40240,7 +41574,7 @@
         <v>7746.340627050002</v>
       </c>
       <c r="H1165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="inlineStr"/>
@@ -40273,7 +41607,7 @@
         <v>7770.492258880002</v>
       </c>
       <c r="H1166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
@@ -40306,7 +41640,7 @@
         <v>7770.492258880002</v>
       </c>
       <c r="H1167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
@@ -40339,7 +41673,7 @@
         <v>7718.519834790002</v>
       </c>
       <c r="H1168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="inlineStr"/>
@@ -40372,7 +41706,7 @@
         <v>8032.945734790002</v>
       </c>
       <c r="H1169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="inlineStr"/>
@@ -40405,7 +41739,7 @@
         <v>7664.213434790003</v>
       </c>
       <c r="H1170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="inlineStr"/>
@@ -40438,7 +41772,7 @@
         <v>7634.192534790002</v>
       </c>
       <c r="H1171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="inlineStr"/>
@@ -40471,7 +41805,7 @@
         <v>7634.192534790002</v>
       </c>
       <c r="H1172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="inlineStr"/>
@@ -40504,7 +41838,7 @@
         <v>7596.311434790003</v>
       </c>
       <c r="H1173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="inlineStr"/>
@@ -40537,7 +41871,7 @@
         <v>7622.546934790003</v>
       </c>
       <c r="H1174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="inlineStr"/>
@@ -40570,7 +41904,7 @@
         <v>7608.775534790003</v>
       </c>
       <c r="H1175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="inlineStr"/>
@@ -40603,7 +41937,7 @@
         <v>7603.966234790003</v>
       </c>
       <c r="H1176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="inlineStr"/>
@@ -40636,7 +41970,7 @@
         <v>7346.994534790003</v>
       </c>
       <c r="H1177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="inlineStr"/>
@@ -40669,7 +42003,7 @@
         <v>7345.983334790003</v>
       </c>
       <c r="H1178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="inlineStr"/>
@@ -41241,6 +42575,6 @@
       <c r="M1195" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest BSV.xlsx
+++ b/BackTest/2019-10-26 BackTest BSV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2122,11 +2122,9 @@
         <v>1446.08219639</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>138000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2161,11 +2159,9 @@
         <v>1454.03899639</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>138000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2200,11 +2196,9 @@
         <v>1452.35109639</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>138100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2239,11 +2233,9 @@
         <v>1462.88309639</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>137800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2278,11 +2270,9 @@
         <v>1412.85809639</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>138000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2317,11 +2307,9 @@
         <v>1412.85809639</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>137200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2395,11 +2383,9 @@
         <v>1435.96399639</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>137500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2434,11 +2420,9 @@
         <v>1419.82059639</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>138000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2473,11 +2457,9 @@
         <v>1456.73299639</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>137600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2512,11 +2494,9 @@
         <v>1405.89739639</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>137700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2551,11 +2531,9 @@
         <v>1405.89739639</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>137400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -2590,11 +2568,9 @@
         <v>1405.89739639</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>137400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -2629,11 +2605,9 @@
         <v>1411.88929639</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>137400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -2668,11 +2642,9 @@
         <v>1444.73079639</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>138000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -2707,11 +2679,9 @@
         <v>1444.70679639</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>138200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -2746,11 +2716,9 @@
         <v>1397.41069639</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>138100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -2785,11 +2753,9 @@
         <v>1236.72259639</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>136900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2824,11 +2790,9 @@
         <v>1253.73449639</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>136200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2863,11 +2827,9 @@
         <v>1179.11549639</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>136600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2902,11 +2864,9 @@
         <v>1064.57559639</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>136300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -3253,11 +3213,9 @@
         <v>1342.75130548</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>137200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -3292,11 +3250,9 @@
         <v>1340.90200548</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>137500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -3331,11 +3287,9 @@
         <v>1340.90200548</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>136900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3370,11 +3324,9 @@
         <v>1245.43090548</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>136900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3409,11 +3361,9 @@
         <v>1246.39660548</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>136800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3448,11 +3398,9 @@
         <v>1242.92630548</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>137000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -3487,11 +3435,9 @@
         <v>1242.92630548</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>136900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -3526,11 +3472,9 @@
         <v>1242.92630548</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>136900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -3565,11 +3509,9 @@
         <v>1283.02630548</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>136900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
@@ -3604,11 +3546,9 @@
         <v>1283.55630548</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>137000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -3643,11 +3583,9 @@
         <v>1283.61540548</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>137300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
@@ -3682,11 +3620,9 @@
         <v>1174.59100548</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>137400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
@@ -3721,11 +3657,9 @@
         <v>1186.60390548</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>137300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -3760,11 +3694,9 @@
         <v>1186.60390548</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>137600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
@@ -3799,11 +3731,9 @@
         <v>1174.56400548</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>137600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
@@ -3838,11 +3768,9 @@
         <v>1271.81550548</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>137500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
@@ -3877,11 +3805,9 @@
         <v>1322.17300548</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>137900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
@@ -3916,11 +3842,9 @@
         <v>1300.98930548</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>138000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
@@ -3955,11 +3879,9 @@
         <v>1300.98930548</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>137700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
@@ -3994,11 +3916,9 @@
         <v>1300.98930548</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>137700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -4033,11 +3953,9 @@
         <v>1265.13640324</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>137700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
@@ -4072,11 +3990,9 @@
         <v>1265.44640324</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>137400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -4111,11 +4027,9 @@
         <v>1265.44640324</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>137700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
@@ -4150,11 +4064,9 @@
         <v>1422.42490324</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>137700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
@@ -4189,11 +4101,9 @@
         <v>1404.23260324</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>138100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
@@ -4228,11 +4138,9 @@
         <v>1394.31480324</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>138000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
@@ -4267,11 +4175,9 @@
         <v>1563.99740324</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>137900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
@@ -4306,11 +4212,9 @@
         <v>1551.97980324</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>138200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
@@ -4345,11 +4249,9 @@
         <v>1845.51100324</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>138100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
@@ -4384,11 +4286,9 @@
         <v>1845.51100324</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>138700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
@@ -4423,11 +4323,9 @@
         <v>1845.51100324</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>138700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
@@ -4462,11 +4360,9 @@
         <v>2171.77600324</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>138700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
@@ -4501,11 +4397,9 @@
         <v>1820.26234922</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>139000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
@@ -4577,11 +4471,9 @@
         <v>1954.75804922</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>139000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -4616,11 +4508,9 @@
         <v>1898.262049219999</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>138700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
@@ -4655,11 +4545,9 @@
         <v>1945.846949219999</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>138400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
@@ -4694,11 +4582,9 @@
         <v>1899.021249219999</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>138500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
@@ -4733,11 +4619,9 @@
         <v>2724.418849219999</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>137800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
@@ -4920,11 +4804,9 @@
         <v>2740.599349219999</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>137900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
@@ -4959,11 +4841,9 @@
         <v>2710.009149219999</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>138100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
@@ -4998,11 +4878,9 @@
         <v>2727.778849219999</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>138000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
@@ -5037,11 +4915,9 @@
         <v>2735.766549219999</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>138200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
@@ -5076,11 +4952,9 @@
         <v>2765.044549219999</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>138700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
@@ -5115,11 +4989,9 @@
         <v>2779.155749219999</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>138800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
@@ -5154,11 +5026,9 @@
         <v>2779.155749219999</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>139200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
@@ -5193,11 +5063,9 @@
         <v>2755.199549219999</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>139200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
@@ -5232,11 +5100,9 @@
         <v>2755.199549219999</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>138900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
@@ -5271,11 +5137,9 @@
         <v>2749.896149219999</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>138900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
@@ -5310,11 +5174,9 @@
         <v>2695.764049219999</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>138600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
@@ -5423,11 +5285,9 @@
         <v>2792.353370999999</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>138800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
@@ -5462,11 +5322,9 @@
         <v>2788.235370999999</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>138800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
@@ -5501,11 +5359,9 @@
         <v>2899.882091099999</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>138600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -5540,11 +5396,9 @@
         <v>2900.626791099999</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>139300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
@@ -5579,11 +5433,9 @@
         <v>3169.549991099999</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>139400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
@@ -5618,11 +5470,9 @@
         <v>3130.854891099999</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>139600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
@@ -5657,11 +5507,9 @@
         <v>3340.972991099999</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>139200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
@@ -5696,11 +5544,9 @@
         <v>3287.1335911</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>139300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
@@ -5846,11 +5692,9 @@
         <v>4071.987497579999</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>140700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
@@ -6810,18 +6654,16 @@
         <v>8061.051701589999</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
@@ -6847,15 +6689,11 @@
         <v>8398.833240659998</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6884,15 +6722,11 @@
         <v>8850.800140659998</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6921,15 +6755,11 @@
         <v>9687.328815069997</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6958,15 +6788,11 @@
         <v>9167.140113829997</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6995,15 +6821,11 @@
         <v>9404.799160889997</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7032,15 +6854,11 @@
         <v>9193.524560889997</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7069,15 +6887,11 @@
         <v>9353.151560889997</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7106,15 +6920,11 @@
         <v>9147.772439359996</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7143,15 +6953,11 @@
         <v>8943.190539359997</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7180,15 +6986,11 @@
         <v>9059.656739359998</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7217,15 +7019,11 @@
         <v>8863.954539359998</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7254,15 +7052,11 @@
         <v>9120.436205849999</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7291,15 +7085,11 @@
         <v>8981.687705849999</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7328,15 +7118,11 @@
         <v>8785.658905849999</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7365,15 +7151,11 @@
         <v>8471.50580585</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7402,15 +7184,11 @@
         <v>8801.13812525</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7439,15 +7217,11 @@
         <v>8694.59738322</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7480,11 +7254,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7517,11 +7287,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7554,11 +7320,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7587,15 +7349,11 @@
         <v>8799.911312849999</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7628,11 +7386,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7665,11 +7419,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7702,11 +7452,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7739,11 +7485,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7776,11 +7518,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7813,11 +7551,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7850,11 +7584,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7887,11 +7617,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7924,11 +7650,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7961,11 +7683,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7998,11 +7716,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8035,11 +7749,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8072,11 +7782,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8109,11 +7815,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8146,11 +7848,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8183,11 +7881,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8220,11 +7914,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8257,11 +7947,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8294,11 +7980,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8331,11 +8013,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8368,11 +8046,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8405,11 +8079,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8442,11 +8112,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8479,11 +8145,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8516,11 +8178,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8553,11 +8211,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8590,11 +8244,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8627,11 +8277,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8664,11 +8310,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8701,11 +8343,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8738,11 +8376,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8775,11 +8409,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8812,11 +8442,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8849,11 +8475,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8886,11 +8508,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8923,11 +8541,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8960,11 +8574,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8997,11 +8607,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9034,11 +8640,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9071,11 +8673,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9108,11 +8706,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9145,11 +8739,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9182,11 +8772,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9219,11 +8805,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9256,11 +8838,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9293,11 +8871,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9330,11 +8904,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9367,11 +8937,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9404,11 +8970,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9441,11 +9003,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9478,11 +9036,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9515,11 +9069,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9552,11 +9102,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9589,11 +9135,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9626,11 +9168,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9663,11 +9201,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9700,11 +9234,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9737,11 +9267,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9774,11 +9300,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9811,11 +9333,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9848,11 +9366,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9885,11 +9399,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9922,11 +9432,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9959,11 +9465,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9996,11 +9498,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10033,11 +9531,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10070,11 +9564,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10107,11 +9597,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10144,11 +9630,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10181,11 +9663,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10218,11 +9696,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10255,11 +9729,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10292,11 +9762,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10329,11 +9795,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10366,11 +9828,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10403,11 +9861,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10440,11 +9894,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10477,11 +9927,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10514,11 +9960,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10551,11 +9993,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10588,11 +10026,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10625,11 +10059,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10662,11 +10092,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10699,11 +10125,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10736,11 +10158,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10773,11 +10191,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10810,11 +10224,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10847,11 +10257,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10884,11 +10290,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10921,11 +10323,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10958,11 +10356,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10995,11 +10389,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11032,11 +10422,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11069,11 +10455,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11106,11 +10488,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11143,11 +10521,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11180,11 +10554,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11217,11 +10587,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11254,11 +10620,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11291,11 +10653,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11328,11 +10686,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11365,11 +10719,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11402,11 +10752,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11439,11 +10785,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11476,11 +10818,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11513,11 +10851,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11550,11 +10884,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11587,11 +10917,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11624,11 +10950,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11661,11 +10983,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11698,11 +11016,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11735,11 +11049,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11772,11 +11082,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11809,11 +11115,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11846,11 +11148,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11883,11 +11181,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11920,11 +11214,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11957,11 +11247,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11994,11 +11280,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12031,11 +11313,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12068,11 +11346,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12105,11 +11379,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12142,11 +11412,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12179,11 +11445,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12216,11 +11478,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12253,11 +11511,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12290,11 +11544,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12327,11 +11577,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12364,11 +11610,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12401,11 +11643,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12438,11 +11676,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12475,11 +11709,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12512,11 +11742,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12549,11 +11775,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12586,11 +11808,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12623,11 +11841,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12660,11 +11874,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12697,11 +11907,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12734,11 +11940,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12771,11 +11973,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12808,11 +12006,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12845,11 +12039,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12882,11 +12072,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12919,11 +12105,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12956,11 +12138,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12993,11 +12171,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13030,11 +12204,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13067,11 +12237,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13104,11 +12270,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13141,11 +12303,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13178,11 +12336,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13215,11 +12369,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13252,11 +12402,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13289,11 +12435,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13326,11 +12468,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13363,11 +12501,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13400,11 +12534,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13437,11 +12567,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13474,11 +12600,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13511,11 +12633,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13548,11 +12666,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13585,11 +12699,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13622,11 +12732,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13659,11 +12765,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13696,11 +12798,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13733,11 +12831,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13770,11 +12864,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13807,11 +12897,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13844,11 +12930,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13881,11 +12963,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13918,11 +12996,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13955,11 +13029,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13992,11 +13062,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14029,11 +13095,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14066,11 +13128,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14103,11 +13161,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14140,11 +13194,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14177,11 +13227,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14214,11 +13260,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14251,11 +13293,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14288,11 +13326,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14325,11 +13359,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14362,11 +13392,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14399,11 +13425,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14436,11 +13458,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14473,11 +13491,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14510,11 +13524,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14547,11 +13557,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14584,11 +13590,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14621,11 +13623,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14658,11 +13656,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14695,11 +13689,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14732,11 +13722,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14769,11 +13755,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14806,11 +13788,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14843,11 +13821,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14880,11 +13854,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14917,11 +13887,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14954,11 +13920,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14991,11 +13953,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15028,11 +13986,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15065,11 +14019,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15102,11 +14052,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15139,11 +14085,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15176,11 +14118,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15213,11 +14151,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15250,11 +14184,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15287,11 +14217,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15324,11 +14250,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15361,11 +14283,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15398,11 +14316,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15435,11 +14349,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15472,11 +14382,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15509,11 +14415,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15546,11 +14448,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15583,11 +14481,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15620,11 +14514,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15657,11 +14547,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15694,11 +14580,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15731,11 +14613,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15768,11 +14646,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15805,11 +14679,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15842,11 +14712,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15879,11 +14745,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15916,11 +14778,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15953,11 +14811,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15990,11 +14844,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16027,11 +14877,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16064,11 +14910,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16101,11 +14943,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16138,11 +14976,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16175,11 +15009,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16212,11 +15042,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16249,11 +15075,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16286,11 +15108,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16323,11 +15141,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16360,11 +15174,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16397,11 +15207,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16434,11 +15240,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16471,11 +15273,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16508,11 +15306,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16545,11 +15339,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16582,11 +15372,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16619,11 +15405,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16656,11 +15438,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16693,11 +15471,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16730,11 +15504,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16767,11 +15537,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16804,11 +15570,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16841,11 +15603,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16878,11 +15636,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16915,11 +15669,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16952,11 +15702,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16989,11 +15735,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17026,11 +15768,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17063,11 +15801,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17100,11 +15834,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17137,11 +15867,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17174,11 +15900,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17211,11 +15933,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17248,11 +15966,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17285,11 +15999,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17322,11 +16032,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17359,11 +16065,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17396,11 +16098,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17433,11 +16131,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17470,11 +16164,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17507,11 +16197,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17544,11 +16230,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17581,11 +16263,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17618,11 +16296,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17655,11 +16329,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17692,11 +16362,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17729,11 +16395,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17766,11 +16428,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17803,11 +16461,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17840,11 +16494,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17877,11 +16527,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17914,11 +16560,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17951,11 +16593,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17988,11 +16626,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18025,11 +16659,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18062,11 +16692,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18099,11 +16725,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18136,11 +16758,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18173,11 +16791,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18210,11 +16824,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18247,11 +16857,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18284,11 +16890,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18321,11 +16923,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18358,11 +16956,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18395,11 +16989,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18432,11 +17022,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18469,11 +17055,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18506,11 +17088,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18543,11 +17121,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18580,11 +17154,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18617,11 +17187,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18654,11 +17220,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18691,11 +17253,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18728,11 +17286,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18765,11 +17319,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18802,11 +17352,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18839,11 +17385,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18876,11 +17418,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18913,11 +17451,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18950,11 +17484,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18987,11 +17517,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -19024,11 +17550,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -19061,11 +17583,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -19098,11 +17616,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -19135,11 +17649,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -19172,11 +17682,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -19209,11 +17715,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -19246,11 +17748,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -19283,11 +17781,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -19320,11 +17814,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -19357,11 +17847,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19394,11 +17880,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19431,11 +17913,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19468,11 +17946,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19505,11 +17979,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19542,11 +18012,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19579,11 +18045,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19616,11 +18078,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19653,11 +18111,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19690,11 +18144,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19727,11 +18177,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19764,11 +18210,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19801,11 +18243,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19838,11 +18276,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19875,11 +18309,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19912,11 +18342,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19949,11 +18375,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19986,11 +18408,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -20023,11 +18441,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -20060,11 +18474,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -20097,11 +18507,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -20134,11 +18540,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -20171,11 +18573,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -20208,11 +18606,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -20245,11 +18639,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -20282,11 +18672,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -20319,11 +18705,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -20356,11 +18738,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -20393,11 +18771,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -20430,11 +18804,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -20467,11 +18837,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -20504,11 +18870,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -20541,11 +18903,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -20578,11 +18936,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -20615,11 +18969,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -20652,11 +19002,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -20689,11 +19035,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -20726,11 +19068,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -20763,11 +19101,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -20800,11 +19134,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20837,11 +19167,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20874,11 +19200,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20911,11 +19233,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20948,11 +19266,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -20985,11 +19299,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -21022,11 +19332,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -21059,11 +19365,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -21096,11 +19398,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -21133,11 +19431,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -21170,11 +19464,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -21207,11 +19497,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -21244,11 +19530,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -21281,11 +19563,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -21318,11 +19596,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -21355,11 +19629,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -21392,11 +19662,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -21429,11 +19695,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -21466,11 +19728,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -21503,11 +19761,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -21540,11 +19794,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -21577,11 +19827,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -21614,11 +19860,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -21651,11 +19893,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -21688,11 +19926,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -21725,11 +19959,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -21762,11 +19992,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -21799,11 +20025,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -21836,11 +20058,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -21873,11 +20091,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -21910,11 +20124,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -21947,11 +20157,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -21984,11 +20190,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -22021,11 +20223,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -22058,11 +20256,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -22095,11 +20289,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -22132,11 +20322,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -22169,11 +20355,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -22206,11 +20388,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -22243,11 +20421,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -22280,11 +20454,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -22317,11 +20487,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -22354,11 +20520,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -22391,11 +20553,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -22428,11 +20586,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -22465,11 +20619,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -22502,11 +20652,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -22539,11 +20685,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -22576,11 +20718,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -22613,11 +20751,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -22650,11 +20784,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -22687,11 +20817,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -22724,11 +20850,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -22761,11 +20883,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -22798,11 +20916,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -22835,11 +20949,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -22872,11 +20982,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -22909,11 +21015,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -22946,11 +21048,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -22983,11 +21081,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -23020,11 +21114,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -23057,11 +21147,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -23094,11 +21180,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -23131,11 +21213,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -23168,11 +21246,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -23205,11 +21279,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -23242,11 +21312,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -23279,11 +21345,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -23316,11 +21378,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -23353,11 +21411,7 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -23390,11 +21444,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -23427,11 +21477,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -23464,11 +21510,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -23501,11 +21543,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -23538,11 +21576,7 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -23575,11 +21609,7 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -23612,11 +21642,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -23649,11 +21675,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -23686,11 +21708,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -23719,16 +21737,14 @@
         <v>10037.29783754001</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
+      <c r="L624" t="n">
+        <v>1</v>
+      </c>
       <c r="M624" t="inlineStr"/>
     </row>
     <row r="625">
@@ -23754,7 +21770,7 @@
         <v>10088.54720297001</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -23787,7 +21803,7 @@
         <v>10136.54140297001</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -23820,7 +21836,7 @@
         <v>10283.67437898001</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -23853,7 +21869,7 @@
         <v>10283.66777898001</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -23886,7 +21902,7 @@
         <v>10339.39827898001</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -23919,7 +21935,7 @@
         <v>10354.10407898001</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -23952,7 +21968,7 @@
         <v>10354.10407898001</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -24348,7 +22364,7 @@
         <v>9800.885892690012</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -24381,7 +22397,7 @@
         <v>9739.091892690012</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -24414,7 +22430,7 @@
         <v>9912.971392690011</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -24447,7 +22463,7 @@
         <v>9943.164192690012</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -24480,7 +22496,7 @@
         <v>9843.794341480012</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -24513,7 +22529,7 @@
         <v>9939.068741480012</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -24546,7 +22562,7 @@
         <v>10254.11751428001</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -24579,7 +22595,7 @@
         <v>10143.52391111001</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -24612,7 +22628,7 @@
         <v>9856.659611110013</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -24645,7 +22661,7 @@
         <v>9861.118511110013</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -24678,7 +22694,7 @@
         <v>9861.118511110013</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -24711,7 +22727,7 @@
         <v>9969.456772970014</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -24744,7 +22760,7 @@
         <v>10102.32031111001</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -24777,7 +22793,7 @@
         <v>10063.18161111001</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -24810,7 +22826,7 @@
         <v>10039.53621111001</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -24843,7 +22859,7 @@
         <v>9939.415311110015</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -24876,7 +22892,7 @@
         <v>9971.274011110016</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -24909,7 +22925,7 @@
         <v>10168.24681111002</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -24942,7 +22958,7 @@
         <v>10073.60724317002</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -24975,7 +22991,7 @@
         <v>10146.69314317002</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -25008,7 +23024,7 @@
         <v>10230.01524317002</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -25041,7 +23057,7 @@
         <v>10214.01424317002</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -25074,7 +23090,7 @@
         <v>10247.08601408002</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -25107,7 +23123,7 @@
         <v>10544.58131408002</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -25140,7 +23156,7 @@
         <v>10847.79377878002</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -25173,7 +23189,7 @@
         <v>11302.73036450002</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -25206,7 +23222,7 @@
         <v>11674.07866450002</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -25239,7 +23255,7 @@
         <v>11108.41979859002</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -25272,7 +23288,7 @@
         <v>10469.24926139002</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -25305,7 +23321,7 @@
         <v>10134.20469530002</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -25338,7 +23354,7 @@
         <v>9943.762376000015</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -25371,7 +23387,7 @@
         <v>10018.24927845002</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -25404,7 +23420,7 @@
         <v>10182.41631541002</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -25437,7 +23453,7 @@
         <v>10509.86301541002</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -25470,7 +23486,7 @@
         <v>10204.57041416002</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -25503,7 +23519,7 @@
         <v>10113.39441012002</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -25536,7 +23552,7 @@
         <v>9671.691010120016</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -25569,7 +23585,7 @@
         <v>9534.343968850015</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -25602,7 +23618,7 @@
         <v>9593.094368850016</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -25635,7 +23651,7 @@
         <v>9544.876168850016</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -25668,7 +23684,7 @@
         <v>9541.468468850017</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -25701,7 +23717,7 @@
         <v>9577.309268850016</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -25734,7 +23750,7 @@
         <v>9631.440468850016</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -25767,7 +23783,7 @@
         <v>9684.287056840016</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -25800,7 +23816,7 @@
         <v>9684.287056840016</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -25833,7 +23849,7 @@
         <v>9672.671356840016</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -25866,7 +23882,7 @@
         <v>9666.576056840015</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -25899,7 +23915,7 @@
         <v>9772.262056840014</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -25932,7 +23948,7 @@
         <v>9683.027554060014</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -25965,7 +23981,7 @@
         <v>9985.700654060014</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -25998,7 +24014,7 @@
         <v>9985.700654060014</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -26031,7 +24047,7 @@
         <v>9914.524354060015</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -26064,7 +24080,7 @@
         <v>9532.073454060015</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -26097,7 +24113,7 @@
         <v>8953.388654060014</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -26130,7 +24146,7 @@
         <v>10045.14225406001</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -26163,7 +24179,7 @@
         <v>9789.173154060014</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -26196,7 +24212,7 @@
         <v>9637.191815970014</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -26229,7 +24245,7 @@
         <v>9637.191815970014</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -26262,7 +24278,7 @@
         <v>9617.070115970015</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -26295,7 +24311,7 @@
         <v>9801.869515970015</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -26328,7 +24344,7 @@
         <v>9901.679015970014</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -26361,7 +24377,7 @@
         <v>9947.730115970015</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -26394,7 +24410,7 @@
         <v>9885.453759860015</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -26427,7 +24443,7 @@
         <v>9885.453759860015</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -26460,7 +24476,7 @@
         <v>9993.707659860014</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -26493,7 +24509,7 @@
         <v>9840.809559860014</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -26526,7 +24542,7 @@
         <v>9820.121359860013</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -26559,7 +24575,7 @@
         <v>9774.068859860014</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -26592,7 +24608,7 @@
         <v>9780.053859860014</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -26625,7 +24641,7 @@
         <v>9890.493059860015</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -26658,7 +24674,7 @@
         <v>9976.637659860015</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -26691,7 +24707,7 @@
         <v>9949.925259860014</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -26724,7 +24740,7 @@
         <v>9832.327759860014</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -26757,7 +24773,7 @@
         <v>9968.886259860014</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -26790,7 +24806,7 @@
         <v>9920.912659860014</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -26823,7 +24839,7 @@
         <v>9907.323279380014</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -26856,7 +24872,7 @@
         <v>9912.976779380015</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -26889,7 +24905,7 @@
         <v>9932.355479380014</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -26922,7 +24938,7 @@
         <v>10011.49377938001</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -26955,7 +24971,7 @@
         <v>9929.442079380015</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -26988,7 +25004,7 @@
         <v>9929.142079380015</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -27021,7 +25037,7 @@
         <v>9861.240979380016</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -27054,7 +25070,7 @@
         <v>9468.486479380015</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -27087,7 +25103,7 @@
         <v>9182.881779380015</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -27120,7 +25136,7 @@
         <v>8449.406179380016</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -27153,7 +25169,7 @@
         <v>8728.037979380015</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -27186,7 +25202,7 @@
         <v>8475.907879380014</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -27219,7 +25235,7 @@
         <v>8537.568379380014</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -27252,7 +25268,7 @@
         <v>8418.385979380015</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -27285,7 +25301,7 @@
         <v>8418.385979380015</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -27318,7 +25334,7 @@
         <v>8328.157179380014</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -27351,7 +25367,7 @@
         <v>8227.564779380014</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -27384,7 +25400,7 @@
         <v>8268.836279380015</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -27417,7 +25433,7 @@
         <v>8250.623679380014</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -27450,7 +25466,7 @@
         <v>8232.972079380015</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -27483,7 +25499,7 @@
         <v>8219.853667120015</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -27516,7 +25532,7 @@
         <v>8219.853667120015</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -27549,7 +25565,7 @@
         <v>8123.481267120014</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -27582,7 +25598,7 @@
         <v>8091.719267120015</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -27615,7 +25631,7 @@
         <v>7814.649561210014</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -27648,7 +25664,7 @@
         <v>7314.296861210014</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -27681,7 +25697,7 @@
         <v>7377.215861210014</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -27714,7 +25730,7 @@
         <v>7368.003162640014</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -27747,7 +25763,7 @@
         <v>7213.410062640014</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -27780,7 +25796,7 @@
         <v>7076.375762640014</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -27813,7 +25829,7 @@
         <v>7277.050962640013</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -27846,7 +25862,7 @@
         <v>7120.178162640013</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -27879,7 +25895,7 @@
         <v>7212.400862640014</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -27912,7 +25928,7 @@
         <v>7274.315162640014</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -27945,7 +25961,7 @@
         <v>7273.359662640014</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -27978,7 +25994,7 @@
         <v>7273.359662640014</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -31410,7 +29426,7 @@
         <v>7663.673688970012</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -31443,7 +29459,7 @@
         <v>7693.593863010013</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -31476,7 +29492,7 @@
         <v>7755.069117070013</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -31509,7 +29525,7 @@
         <v>8430.801632540013</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -31542,7 +29558,7 @@
         <v>8739.652166770013</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -31575,7 +29591,7 @@
         <v>8739.652166770013</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -31608,7 +29624,7 @@
         <v>8739.652166770013</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -31641,7 +29657,7 @@
         <v>8873.934531480012</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -31674,7 +29690,7 @@
         <v>8349.047700210012</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -31707,7 +29723,7 @@
         <v>8387.847700210012</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -31740,7 +29756,7 @@
         <v>8424.690600320011</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -31773,7 +29789,7 @@
         <v>8439.43040032001</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -31806,7 +29822,7 @@
         <v>8400.61260032001</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -31839,7 +29855,7 @@
         <v>8365.992600320009</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -31872,7 +29888,7 @@
         <v>8438.487807840009</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -31905,7 +29921,7 @@
         <v>8438.487807840009</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -31938,7 +29954,7 @@
         <v>8315.377407840009</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -31971,7 +29987,7 @@
         <v>8265.126626640009</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -32004,7 +30020,7 @@
         <v>8209.451426640009</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -32037,7 +30053,7 @@
         <v>8209.451426640009</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -32070,7 +30086,7 @@
         <v>8025.656026640009</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -32103,7 +30119,7 @@
         <v>8161.700026640009</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -32136,7 +30152,7 @@
         <v>8131.282229280009</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -32169,7 +30185,7 @@
         <v>8108.01082928001</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -32202,7 +30218,7 @@
         <v>8091.88452928001</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -32235,7 +30251,7 @@
         <v>8255.745629280009</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -32268,7 +30284,7 @@
         <v>8255.745629280009</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -32301,7 +30317,7 @@
         <v>8157.248329280009</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -32334,7 +30350,7 @@
         <v>8133.092429280009</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -32367,7 +30383,7 @@
         <v>8119.890129280009</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -32400,7 +30416,7 @@
         <v>8119.890129280009</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -32433,7 +30449,7 @@
         <v>8119.890129280009</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -32466,7 +30482,7 @@
         <v>8117.461429280009</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -32499,7 +30515,7 @@
         <v>8072.395129280008</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -32532,7 +30548,7 @@
         <v>8078.855329280009</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -32565,7 +30581,7 @@
         <v>8040.091229280009</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -32598,7 +30614,7 @@
         <v>7965.373129280008</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -32631,7 +30647,7 @@
         <v>7965.373129280008</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -32664,7 +30680,7 @@
         <v>7983.337529280008</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -32763,7 +30779,7 @@
         <v>8024.205729280008</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -32796,7 +30812,7 @@
         <v>8022.615129280008</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -32829,7 +30845,7 @@
         <v>8022.905129280008</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -32862,7 +30878,7 @@
         <v>7990.459029280008</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -32895,7 +30911,7 @@
         <v>7990.459029280008</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -32928,7 +30944,7 @@
         <v>7966.429829280008</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -32961,7 +30977,7 @@
         <v>7947.201529280008</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -32994,7 +31010,7 @@
         <v>7919.666629280008</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -33027,7 +31043,7 @@
         <v>7919.666629280008</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -33060,7 +31076,7 @@
         <v>7915.658229280009</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -33093,7 +31109,7 @@
         <v>7915.377229280009</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -33126,7 +31142,7 @@
         <v>7973.791329280009</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -33159,7 +31175,7 @@
         <v>7973.791329280009</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -33192,7 +31208,7 @@
         <v>7972.038129280008</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -33225,7 +31241,7 @@
         <v>7912.590529280008</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -33258,7 +31274,7 @@
         <v>8005.644129280008</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -33291,7 +31307,7 @@
         <v>8005.644129280008</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -33324,7 +31340,7 @@
         <v>7955.879429280008</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -33357,7 +31373,7 @@
         <v>7916.878229280009</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -33390,7 +31406,7 @@
         <v>7943.292229280009</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -33423,7 +31439,7 @@
         <v>7943.292229280009</v>
       </c>
       <c r="H918" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -33456,7 +31472,7 @@
         <v>7070.767629280009</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -33489,7 +31505,7 @@
         <v>7195.973829280008</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -33522,7 +31538,7 @@
         <v>7270.944529280008</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -33555,7 +31571,7 @@
         <v>7302.444529280008</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -33588,7 +31604,7 @@
         <v>7310.622429280008</v>
       </c>
       <c r="H923" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -33621,7 +31637,7 @@
         <v>7301.970929280008</v>
       </c>
       <c r="H924" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -33654,7 +31670,7 @@
         <v>7377.312729280008</v>
       </c>
       <c r="H925" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -33687,7 +31703,7 @@
         <v>7377.330779820009</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -33720,7 +31736,7 @@
         <v>7359.030479820009</v>
       </c>
       <c r="H927" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -33753,7 +31769,7 @@
         <v>7360.057279820008</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -33786,7 +31802,7 @@
         <v>7362.718765730008</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -33819,7 +31835,7 @@
         <v>7359.542065730008</v>
       </c>
       <c r="H930" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -33852,7 +31868,7 @@
         <v>7356.743665730009</v>
       </c>
       <c r="H931" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -33885,7 +31901,7 @@
         <v>7256.669365730008</v>
       </c>
       <c r="H932" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -33951,7 +31967,7 @@
         <v>7212.333765730008</v>
       </c>
       <c r="H934" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -34017,7 +32033,7 @@
         <v>7195.926665010008</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -34050,7 +32066,7 @@
         <v>7275.149665010008</v>
       </c>
       <c r="H937" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -34083,7 +32099,7 @@
         <v>7283.796844500008</v>
       </c>
       <c r="H938" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -34116,7 +32132,7 @@
         <v>7258.911244500008</v>
       </c>
       <c r="H939" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -34149,7 +32165,7 @@
         <v>7108.864644500009</v>
       </c>
       <c r="H940" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -34182,7 +32198,7 @@
         <v>7108.864644500009</v>
       </c>
       <c r="H941" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -34215,7 +32231,7 @@
         <v>7100.701544500009</v>
       </c>
       <c r="H942" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -34248,7 +32264,7 @@
         <v>7145.648153720009</v>
       </c>
       <c r="H943" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -34281,7 +32297,7 @@
         <v>7136.801953720009</v>
       </c>
       <c r="H944" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -34314,7 +32330,7 @@
         <v>7457.351274230009</v>
       </c>
       <c r="H945" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -34347,7 +32363,7 @@
         <v>7345.016674230009</v>
       </c>
       <c r="H946" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -34380,7 +32396,7 @@
         <v>7345.016674230009</v>
       </c>
       <c r="H947" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -34413,7 +32429,7 @@
         <v>7348.914474230009</v>
       </c>
       <c r="H948" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -34479,7 +32495,7 @@
         <v>7359.084474230009</v>
       </c>
       <c r="H950" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -34545,7 +32561,7 @@
         <v>8421.989174230008</v>
       </c>
       <c r="H952" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -34578,7 +32594,7 @@
         <v>8383.795174230008</v>
       </c>
       <c r="H953" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -34644,7 +32660,7 @@
         <v>8070.109606380008</v>
       </c>
       <c r="H955" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -34677,7 +32693,7 @@
         <v>8070.109606380008</v>
       </c>
       <c r="H956" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -34710,7 +32726,7 @@
         <v>8066.920306380008</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -34743,7 +32759,7 @@
         <v>8065.965006380008</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -34776,7 +32792,7 @@
         <v>8065.965006380008</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -34809,7 +32825,7 @@
         <v>8066.145006380008</v>
       </c>
       <c r="H960" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -34842,7 +32858,7 @@
         <v>8066.131906380008</v>
       </c>
       <c r="H961" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -34875,7 +32891,7 @@
         <v>8068.265006380008</v>
       </c>
       <c r="H962" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -34908,7 +32924,7 @@
         <v>8067.604106380008</v>
       </c>
       <c r="H963" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -34941,7 +32957,7 @@
         <v>8067.604106380008</v>
       </c>
       <c r="H964" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -34974,7 +32990,7 @@
         <v>8068.615206380008</v>
       </c>
       <c r="H965" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -35007,7 +33023,7 @@
         <v>8079.129606380008</v>
       </c>
       <c r="H966" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -35040,7 +33056,7 @@
         <v>8070.128806380008</v>
       </c>
       <c r="H967" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -35106,7 +33122,7 @@
         <v>8085.999428850008</v>
       </c>
       <c r="H969" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -35139,7 +33155,7 @@
         <v>8085.869328850008</v>
       </c>
       <c r="H970" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -35172,7 +33188,7 @@
         <v>8085.869328850008</v>
       </c>
       <c r="H971" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -35205,7 +33221,7 @@
         <v>8085.908028850008</v>
       </c>
       <c r="H972" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -35238,7 +33254,7 @@
         <v>8088.005728850008</v>
       </c>
       <c r="H973" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -35271,7 +33287,7 @@
         <v>8169.987128850008</v>
       </c>
       <c r="H974" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -35304,7 +33320,7 @@
         <v>8140.243828850008</v>
       </c>
       <c r="H975" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -35337,7 +33353,7 @@
         <v>8137.295728850008</v>
       </c>
       <c r="H976" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -35370,7 +33386,7 @@
         <v>8138.933028850009</v>
       </c>
       <c r="H977" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -35403,7 +33419,7 @@
         <v>8199.496228850008</v>
       </c>
       <c r="H978" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -35436,7 +33452,7 @@
         <v>8188.188265460009</v>
       </c>
       <c r="H979" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -35469,7 +33485,7 @@
         <v>8177.364765460008</v>
       </c>
       <c r="H980" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -35502,7 +33518,7 @@
         <v>8177.364765460008</v>
       </c>
       <c r="H981" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -35535,7 +33551,7 @@
         <v>8186.532465460008</v>
       </c>
       <c r="H982" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -35568,7 +33584,7 @@
         <v>8126.446365460008</v>
       </c>
       <c r="H983" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -35601,7 +33617,7 @@
         <v>8126.666365460008</v>
       </c>
       <c r="H984" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -35634,7 +33650,7 @@
         <v>8117.639965460008</v>
       </c>
       <c r="H985" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -35667,7 +33683,7 @@
         <v>8117.622865460008</v>
       </c>
       <c r="H986" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -35700,7 +33716,7 @@
         <v>8117.922865460008</v>
       </c>
       <c r="H987" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -35766,7 +33782,7 @@
         <v>7958.542895360009</v>
       </c>
       <c r="H989" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -35799,7 +33815,7 @@
         <v>7959.566895360009</v>
       </c>
       <c r="H990" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -35832,7 +33848,7 @@
         <v>7944.682095360009</v>
       </c>
       <c r="H991" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -35865,7 +33881,7 @@
         <v>7922.110795360009</v>
       </c>
       <c r="H992" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -35898,7 +33914,7 @@
         <v>7961.999295360009</v>
       </c>
       <c r="H993" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -35931,7 +33947,7 @@
         <v>7968.723195360009</v>
       </c>
       <c r="H994" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -35964,7 +33980,7 @@
         <v>8035.764795360009</v>
       </c>
       <c r="H995" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -35997,7 +34013,7 @@
         <v>8024.642795360009</v>
       </c>
       <c r="H996" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -36030,7 +34046,7 @@
         <v>8038.213995360009</v>
       </c>
       <c r="H997" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -36063,7 +34079,7 @@
         <v>8037.435495360009</v>
       </c>
       <c r="H998" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -36096,7 +34112,7 @@
         <v>9502.82759536001</v>
       </c>
       <c r="H999" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -36129,7 +34145,7 @@
         <v>9388.54789536001</v>
       </c>
       <c r="H1000" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -36162,7 +34178,7 @@
         <v>9270.04029536001</v>
       </c>
       <c r="H1001" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -36228,7 +34244,7 @@
         <v>9184.273395360009</v>
       </c>
       <c r="H1003" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -36294,7 +34310,7 @@
         <v>8431.777295360009</v>
       </c>
       <c r="H1005" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -36327,7 +34343,7 @@
         <v>8879.502395360008</v>
       </c>
       <c r="H1006" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -36360,7 +34376,7 @@
         <v>8927.355395360008</v>
       </c>
       <c r="H1007" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -36393,7 +34409,7 @@
         <v>9127.695392620008</v>
       </c>
       <c r="H1008" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -36426,7 +34442,7 @@
         <v>9127.695392620008</v>
       </c>
       <c r="H1009" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -36459,7 +34475,7 @@
         <v>8901.905792620008</v>
       </c>
       <c r="H1010" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -36492,7 +34508,7 @@
         <v>8982.637792620008</v>
       </c>
       <c r="H1011" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -36525,7 +34541,7 @@
         <v>9041.032163130007</v>
       </c>
       <c r="H1012" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -36591,7 +34607,7 @@
         <v>9259.982160770007</v>
       </c>
       <c r="H1014" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -36723,7 +34739,7 @@
         <v>10184.03524264001</v>
       </c>
       <c r="H1018" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -36789,7 +34805,7 @@
         <v>10236.30432510001</v>
       </c>
       <c r="H1020" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -37383,7 +35399,7 @@
         <v>10190.19034439</v>
       </c>
       <c r="H1038" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -42575,6 +40591,6 @@
       <c r="M1195" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest BSV.xlsx
+++ b/BackTest/2019-10-26 BackTest BSV.xlsx
@@ -2122,9 +2122,11 @@
         <v>1446.08219639</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>138000</v>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2159,9 +2161,11 @@
         <v>1454.03899639</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>138000</v>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2196,9 +2200,11 @@
         <v>1452.35109639</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>138100</v>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2383,9 +2389,11 @@
         <v>1435.96399639</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>137500</v>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2457,9 +2465,11 @@
         <v>1456.73299639</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>137600</v>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2494,9 +2504,11 @@
         <v>1405.89739639</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>137700</v>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2568,9 +2580,11 @@
         <v>1405.89739639</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>137400</v>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -2605,9 +2619,11 @@
         <v>1411.88929639</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>137400</v>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -2642,9 +2658,11 @@
         <v>1444.73079639</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>138000</v>
+      </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -2753,9 +2771,11 @@
         <v>1236.72259639</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>136900</v>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2790,9 +2810,11 @@
         <v>1253.73449639</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>136200</v>
+      </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2827,9 +2849,11 @@
         <v>1179.11549639</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>136600</v>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2864,9 +2888,11 @@
         <v>1064.57559639</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>136300</v>
+      </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -3213,9 +3239,11 @@
         <v>1342.75130548</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>137200</v>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -3250,9 +3278,11 @@
         <v>1340.90200548</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>137500</v>
+      </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -3287,9 +3317,11 @@
         <v>1340.90200548</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>136900</v>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3324,9 +3356,11 @@
         <v>1245.43090548</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>136900</v>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3361,9 +3395,11 @@
         <v>1246.39660548</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>136800</v>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3398,9 +3434,11 @@
         <v>1242.92630548</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>137000</v>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -3435,9 +3473,11 @@
         <v>1242.92630548</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>136900</v>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -3472,9 +3512,11 @@
         <v>1242.92630548</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>136900</v>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -3509,9 +3551,11 @@
         <v>1283.02630548</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>136900</v>
+      </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
@@ -3546,9 +3590,11 @@
         <v>1283.55630548</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>137000</v>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -3583,9 +3629,11 @@
         <v>1283.61540548</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>137300</v>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
@@ -3620,9 +3668,11 @@
         <v>1174.59100548</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>137400</v>
+      </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
@@ -3657,9 +3707,11 @@
         <v>1186.60390548</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>137300</v>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -3694,9 +3746,11 @@
         <v>1186.60390548</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>137600</v>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
@@ -3731,9 +3785,11 @@
         <v>1174.56400548</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>137600</v>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
@@ -3768,9 +3824,11 @@
         <v>1271.81550548</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>137500</v>
+      </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
@@ -3805,9 +3863,11 @@
         <v>1322.17300548</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>137900</v>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
@@ -3842,9 +3902,11 @@
         <v>1300.98930548</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>138000</v>
+      </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
@@ -3879,9 +3941,11 @@
         <v>1300.98930548</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>137700</v>
+      </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
@@ -3916,9 +3980,11 @@
         <v>1300.98930548</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>137700</v>
+      </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -3953,9 +4019,11 @@
         <v>1265.13640324</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>137700</v>
+      </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
@@ -3990,9 +4058,11 @@
         <v>1265.44640324</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>137400</v>
+      </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -4027,9 +4097,11 @@
         <v>1265.44640324</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>137700</v>
+      </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
@@ -6654,16 +6726,18 @@
         <v>8061.051701589999</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L167" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
       <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
@@ -6689,11 +6763,15 @@
         <v>8398.833240659998</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6722,11 +6800,15 @@
         <v>8850.800140659998</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6755,11 +6837,15 @@
         <v>9687.328815069997</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6788,11 +6874,15 @@
         <v>9167.140113829997</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6821,11 +6911,15 @@
         <v>9404.799160889997</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6854,11 +6948,15 @@
         <v>9193.524560889997</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6887,11 +6985,15 @@
         <v>9353.151560889997</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6920,11 +7022,15 @@
         <v>9147.772439359996</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6953,11 +7059,15 @@
         <v>8943.190539359997</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6986,11 +7096,15 @@
         <v>9059.656739359998</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7019,11 +7133,15 @@
         <v>8863.954539359998</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7052,11 +7170,15 @@
         <v>9120.436205849999</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7085,11 +7207,15 @@
         <v>8981.687705849999</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7118,11 +7244,15 @@
         <v>8785.658905849999</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7151,11 +7281,15 @@
         <v>8471.50580585</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7184,11 +7318,15 @@
         <v>8801.13812525</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7217,11 +7355,15 @@
         <v>8694.59738322</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7254,7 +7396,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7287,7 +7433,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7320,7 +7470,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7349,11 +7503,15 @@
         <v>8799.911312849999</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7386,7 +7544,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7419,7 +7581,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7452,7 +7618,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7485,7 +7655,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7518,7 +7692,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7551,7 +7729,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7584,7 +7766,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7617,7 +7803,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7650,7 +7840,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7683,7 +7877,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7716,7 +7914,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7749,7 +7951,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7782,7 +7988,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7815,7 +8025,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7848,7 +8062,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7881,7 +8099,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7914,7 +8136,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7947,7 +8173,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7980,7 +8210,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8013,7 +8247,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8046,7 +8284,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8079,7 +8321,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8112,7 +8358,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8145,7 +8395,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8178,7 +8432,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8211,7 +8469,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8244,7 +8506,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8277,7 +8543,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8310,7 +8580,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8343,7 +8617,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8376,7 +8654,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8409,7 +8691,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8442,7 +8728,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8475,7 +8765,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8508,7 +8802,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8541,7 +8839,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8574,7 +8876,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8607,7 +8913,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8640,7 +8950,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8673,7 +8987,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8706,7 +9024,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8739,7 +9061,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8772,7 +9098,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8805,7 +9135,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8838,7 +9172,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8871,7 +9209,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8904,7 +9246,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8937,7 +9283,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8970,7 +9320,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9003,7 +9357,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9036,7 +9394,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9069,7 +9431,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9102,7 +9468,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9135,7 +9505,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9168,7 +9542,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9201,7 +9579,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9234,7 +9616,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9267,7 +9653,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9300,7 +9690,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9333,7 +9727,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9366,7 +9764,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9399,7 +9801,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9432,7 +9838,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9465,7 +9875,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9498,7 +9912,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9531,7 +9949,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9564,7 +9986,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9597,7 +10023,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9630,7 +10060,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9663,7 +10097,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9696,7 +10134,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9729,7 +10171,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9762,7 +10208,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9795,7 +10245,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9828,7 +10282,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9861,7 +10319,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9894,7 +10356,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9927,7 +10393,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9960,7 +10430,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9993,7 +10467,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10026,7 +10504,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10059,7 +10541,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10092,7 +10578,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10125,7 +10615,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10158,7 +10652,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10191,7 +10689,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10224,7 +10726,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10257,7 +10763,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10290,7 +10800,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10323,7 +10837,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10356,7 +10874,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10389,7 +10911,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10422,7 +10948,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10455,7 +10985,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10488,7 +11022,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10521,7 +11059,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10554,7 +11096,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10587,7 +11133,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10620,7 +11170,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10653,7 +11207,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10686,7 +11244,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10719,7 +11281,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10752,7 +11318,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10785,7 +11355,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10818,7 +11392,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10851,7 +11429,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10884,7 +11466,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10917,7 +11503,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10950,7 +11540,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10983,7 +11577,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11016,7 +11614,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11049,7 +11651,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11082,7 +11688,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11115,7 +11725,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11148,7 +11762,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11181,7 +11799,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11214,7 +11836,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11247,7 +11873,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11280,7 +11910,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11313,7 +11947,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11346,7 +11984,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11379,7 +12021,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11412,7 +12058,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11445,7 +12095,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11478,7 +12132,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11511,7 +12169,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11544,7 +12206,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11577,7 +12243,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11610,7 +12280,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11643,7 +12317,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11676,7 +12354,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11709,7 +12391,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11742,7 +12428,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11775,7 +12465,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11808,7 +12502,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11841,7 +12539,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11874,7 +12576,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11907,7 +12613,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11940,7 +12650,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11973,7 +12687,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12006,7 +12724,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12039,7 +12761,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12072,7 +12798,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12105,7 +12835,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12138,7 +12872,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12171,7 +12909,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12204,7 +12946,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12237,7 +12983,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12270,7 +13020,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12303,7 +13057,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12336,7 +13094,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12369,7 +13131,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12402,7 +13168,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12435,7 +13205,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12468,7 +13242,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12501,7 +13279,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12534,7 +13316,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12567,7 +13353,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12600,7 +13390,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12633,7 +13427,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12666,7 +13464,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12699,7 +13501,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12732,7 +13538,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12765,7 +13575,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12798,7 +13612,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12831,7 +13649,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12864,7 +13686,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12897,7 +13723,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12930,7 +13760,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12963,7 +13797,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12996,7 +13834,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13029,7 +13871,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13062,7 +13908,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13095,7 +13945,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13128,7 +13982,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13161,7 +14019,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13194,7 +14056,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13227,7 +14093,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13260,7 +14130,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13293,7 +14167,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13326,7 +14204,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13359,7 +14241,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13392,7 +14278,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13425,7 +14315,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13458,7 +14352,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13491,7 +14389,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13524,7 +14426,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13557,7 +14463,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13590,7 +14500,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13623,7 +14537,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13656,7 +14574,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13689,7 +14611,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13722,7 +14648,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13755,7 +14685,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13788,7 +14722,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13821,7 +14759,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13854,7 +14796,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13887,7 +14833,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13920,7 +14870,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13953,7 +14907,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13986,7 +14944,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14019,7 +14981,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14052,7 +15018,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14085,7 +15055,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14118,7 +15092,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14151,7 +15129,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14184,7 +15166,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14217,7 +15203,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14250,7 +15240,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14283,7 +15277,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14316,7 +15314,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14349,7 +15351,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14382,7 +15388,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14415,7 +15425,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14448,7 +15462,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14481,7 +15499,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14514,7 +15536,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14547,7 +15573,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14580,7 +15610,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14613,7 +15647,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14646,7 +15684,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14679,7 +15721,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14712,7 +15758,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14745,7 +15795,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14778,7 +15832,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14811,7 +15869,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14844,7 +15906,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14877,7 +15943,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14910,7 +15980,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14943,7 +16017,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14976,7 +16054,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15009,7 +16091,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15042,7 +16128,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15075,7 +16165,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15108,7 +16202,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15141,7 +16239,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15174,7 +16276,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15207,7 +16313,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15240,7 +16350,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15273,7 +16387,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15306,7 +16424,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15339,7 +16461,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15372,7 +16498,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15405,7 +16535,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15438,7 +16572,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15471,7 +16609,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15504,7 +16646,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15537,7 +16683,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15570,7 +16720,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15603,7 +16757,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15636,7 +16794,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15669,7 +16831,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15702,7 +16868,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15735,7 +16905,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15768,7 +16942,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15801,7 +16979,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15834,7 +17016,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15867,7 +17053,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15900,7 +17090,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15933,7 +17127,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15966,7 +17164,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15999,7 +17201,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16032,7 +17238,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16065,7 +17275,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16098,7 +17312,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16131,7 +17349,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16164,7 +17386,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16197,7 +17423,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16230,7 +17460,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16263,7 +17497,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16296,7 +17534,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16329,7 +17571,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16362,7 +17608,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16395,7 +17645,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16428,7 +17682,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16461,7 +17719,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16494,7 +17756,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16527,7 +17793,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16560,7 +17830,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16593,7 +17867,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16626,7 +17904,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16659,7 +17941,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16692,7 +17978,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16725,7 +18015,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16758,7 +18052,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16791,7 +18089,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16824,7 +18126,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16857,7 +18163,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16890,7 +18200,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16923,7 +18237,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16956,7 +18274,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16989,7 +18311,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17022,7 +18348,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17055,7 +18385,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17088,7 +18422,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17121,7 +18459,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17154,7 +18496,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17187,7 +18533,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17220,7 +18570,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17253,7 +18607,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17286,7 +18644,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17319,7 +18681,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17352,7 +18718,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17385,7 +18755,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17418,7 +18792,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17451,7 +18829,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17484,7 +18866,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17517,7 +18903,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17550,7 +18940,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17583,7 +18977,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17616,7 +19014,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17649,7 +19051,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17682,7 +19088,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17715,7 +19125,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17748,7 +19162,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17781,7 +19199,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17814,7 +19236,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17847,7 +19273,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17880,7 +19310,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17913,7 +19347,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17946,7 +19384,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17979,7 +19421,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18012,7 +19458,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18045,7 +19495,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18078,7 +19532,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18111,7 +19569,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18144,7 +19606,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18177,7 +19643,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18210,7 +19680,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18243,7 +19717,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18276,7 +19754,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18309,7 +19791,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18342,7 +19828,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18375,7 +19865,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18408,7 +19902,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18441,7 +19939,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18474,7 +19976,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18507,7 +20013,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18540,7 +20050,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18573,7 +20087,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18606,7 +20124,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18639,7 +20161,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18672,7 +20198,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18705,7 +20235,11 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18738,7 +20272,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18771,7 +20309,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18804,7 +20346,11 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18837,7 +20383,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18870,7 +20420,11 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18903,7 +20457,11 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18936,7 +20494,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18969,7 +20531,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19002,7 +20568,11 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19035,7 +20605,11 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19068,7 +20642,11 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19101,7 +20679,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19134,7 +20716,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19167,7 +20753,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19200,7 +20790,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19233,7 +20827,11 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19266,7 +20864,11 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19299,7 +20901,11 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19332,7 +20938,11 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19365,7 +20975,11 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19398,7 +21012,11 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19431,7 +21049,11 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19464,7 +21086,11 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19497,7 +21123,11 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19530,7 +21160,11 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19563,7 +21197,11 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19596,7 +21234,11 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19629,7 +21271,11 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19662,7 +21308,11 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19695,7 +21345,11 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19728,7 +21382,11 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19761,7 +21419,11 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19794,7 +21456,11 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19827,7 +21493,11 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19860,7 +21530,11 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19893,7 +21567,11 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19926,7 +21604,11 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19959,7 +21641,11 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19992,7 +21678,11 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20025,7 +21715,11 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20058,7 +21752,11 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20091,7 +21789,11 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20124,7 +21826,11 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20157,7 +21863,11 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20190,7 +21900,11 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20223,7 +21937,11 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20256,7 +21974,11 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20289,7 +22011,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20322,7 +22048,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20355,7 +22085,11 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20388,7 +22122,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20421,7 +22159,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20454,7 +22196,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20487,7 +22233,11 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20520,7 +22270,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20553,7 +22307,11 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20586,7 +22344,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20619,7 +22381,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20652,7 +22418,11 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20685,7 +22455,11 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20718,7 +22492,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20751,7 +22529,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20784,7 +22566,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20817,7 +22603,11 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20850,7 +22640,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20883,7 +22677,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20916,7 +22714,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20949,7 +22751,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20982,7 +22788,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21015,7 +22825,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21048,7 +22862,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21081,7 +22899,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21114,7 +22936,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21147,7 +22973,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21180,7 +23010,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21213,7 +23047,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21246,7 +23084,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21279,7 +23121,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21312,7 +23158,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21345,7 +23195,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21378,7 +23232,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21411,7 +23269,11 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21444,7 +23306,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21477,7 +23343,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21510,7 +23380,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21543,7 +23417,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21576,7 +23454,11 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21609,7 +23491,11 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21642,7 +23528,11 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21675,7 +23565,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21708,7 +23602,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21741,7 +23639,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21774,7 +23676,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21807,7 +23713,11 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21840,7 +23750,11 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21873,7 +23787,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21906,7 +23824,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21939,7 +23861,11 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21972,7 +23898,11 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22005,7 +23935,11 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22038,7 +23972,11 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22071,7 +24009,11 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22104,7 +24046,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22137,7 +24083,11 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22170,7 +24120,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22203,7 +24157,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22236,7 +24194,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22269,7 +24231,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22302,7 +24268,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22335,7 +24305,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22368,7 +24342,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22401,7 +24379,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22434,7 +24416,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22467,7 +24453,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22500,7 +24490,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22533,7 +24527,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22566,7 +24564,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22599,7 +24601,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22632,7 +24638,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22665,7 +24675,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22698,7 +24712,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22731,7 +24749,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22764,7 +24786,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22797,7 +24823,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22830,7 +24860,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22863,7 +24897,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22896,7 +24934,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22929,7 +24971,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22962,7 +25008,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22995,7 +25045,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23028,7 +25082,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23061,7 +25119,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23094,7 +25156,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23127,7 +25193,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23160,7 +25230,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23193,7 +25267,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23226,7 +25304,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23255,14 +25337,16 @@
         <v>11108.41979859002</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
-      <c r="L670" t="n">
-        <v>1</v>
-      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L670" t="inlineStr"/>
       <c r="M670" t="inlineStr"/>
     </row>
     <row r="671">
@@ -23288,7 +25372,7 @@
         <v>10469.24926139002</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -23321,7 +25405,7 @@
         <v>10134.20469530002</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -23354,7 +25438,7 @@
         <v>9943.762376000015</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -23387,7 +25471,7 @@
         <v>10018.24927845002</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -23420,7 +25504,7 @@
         <v>10182.41631541002</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -23453,7 +25537,7 @@
         <v>10509.86301541002</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -23486,7 +25570,7 @@
         <v>10204.57041416002</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -23519,7 +25603,7 @@
         <v>10113.39441012002</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -23552,7 +25636,7 @@
         <v>9671.691010120016</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -23585,7 +25669,7 @@
         <v>9534.343968850015</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -23618,7 +25702,7 @@
         <v>9593.094368850016</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -23651,7 +25735,7 @@
         <v>9544.876168850016</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -23684,7 +25768,7 @@
         <v>9541.468468850017</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -23717,7 +25801,7 @@
         <v>9577.309268850016</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -23750,7 +25834,7 @@
         <v>9631.440468850016</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23783,7 +25867,7 @@
         <v>9684.287056840016</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23816,7 +25900,7 @@
         <v>9684.287056840016</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23849,7 +25933,7 @@
         <v>9672.671356840016</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23882,7 +25966,7 @@
         <v>9666.576056840015</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23915,7 +25999,7 @@
         <v>9772.262056840014</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23948,7 +26032,7 @@
         <v>9683.027554060014</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23981,7 +26065,7 @@
         <v>9985.700654060014</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -24014,7 +26098,7 @@
         <v>9985.700654060014</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -24047,7 +26131,7 @@
         <v>9914.524354060015</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -24080,7 +26164,7 @@
         <v>9532.073454060015</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -24113,7 +26197,7 @@
         <v>8953.388654060014</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -24146,7 +26230,7 @@
         <v>10045.14225406001</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -24179,7 +26263,7 @@
         <v>9789.173154060014</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -24212,7 +26296,7 @@
         <v>9637.191815970014</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -24245,7 +26329,7 @@
         <v>9637.191815970014</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -24410,7 +26494,7 @@
         <v>9885.453759860015</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -24443,7 +26527,7 @@
         <v>9885.453759860015</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -24476,7 +26560,7 @@
         <v>9993.707659860014</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -24509,7 +26593,7 @@
         <v>9840.809559860014</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -24542,7 +26626,7 @@
         <v>9820.121359860013</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
